--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL予算_2_値セットの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL予算_2_値セットの管理.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\01_セットアップ定義書\10_コンサル\GL予算\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\92_分社化\10_設計フェーズ\10_成果物\【触らないでください】40_その他\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,13 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="41" r:id="rId1"/>
-    <sheet name="GL予算_2" sheetId="39" r:id="rId2"/>
-    <sheet name="地理の管理" sheetId="6" state="hidden" r:id="rId3"/>
-    <sheet name="予算管理" sheetId="35" state="hidden" r:id="rId4"/>
-    <sheet name="Sheet9" sheetId="25" state="hidden" r:id="rId5"/>
+    <sheet name="手順" sheetId="42" r:id="rId2"/>
+    <sheet name="GL予算_2" sheetId="39" r:id="rId3"/>
+    <sheet name="地理の管理" sheetId="6" state="hidden" r:id="rId4"/>
+    <sheet name="予算管理" sheetId="35" state="hidden" r:id="rId5"/>
+    <sheet name="Sheet9" sheetId="25" state="hidden" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
@@ -57,6 +57,7 @@
     <externalReference r:id="rId41"/>
     <externalReference r:id="rId42"/>
     <externalReference r:id="rId43"/>
+    <externalReference r:id="rId44"/>
   </externalReferences>
   <definedNames>
     <definedName name="_1900_01_09">#REF!</definedName>
@@ -426,15 +427,17 @@
     <definedName name="_1998_12_29">#REF!</definedName>
     <definedName name="_1998_12_30">#REF!</definedName>
     <definedName name="_1998_12_31">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="2" hidden="1">[1]責準明細表!#REF!</definedName>
     <definedName name="_Fill" localSheetId="1" hidden="1">[1]責準明細表!#REF!</definedName>
-    <definedName name="_Fill" localSheetId="2" hidden="1">[2]責準明細表!#REF!</definedName>
+    <definedName name="_Fill" localSheetId="3" hidden="1">[2]責準明細表!#REF!</definedName>
     <definedName name="_Fill" localSheetId="0" hidden="1">[3]テーブル仕様!#REF!</definedName>
-    <definedName name="_Fill" localSheetId="3">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="4">#REF!</definedName>
     <definedName name="_Fill">#REF!</definedName>
-    <definedName name="_Fill2" localSheetId="1" hidden="1">[1]責準明細表!#REF!</definedName>
+    <definedName name="_Fill2" localSheetId="2" hidden="1">[1]責準明細表!#REF!</definedName>
     <definedName name="_Fill2" localSheetId="0" hidden="1">[1]責準明細表!#REF!</definedName>
-    <definedName name="_Fill2" localSheetId="3" hidden="1">[1]責準明細表!#REF!</definedName>
+    <definedName name="_Fill2" localSheetId="4" hidden="1">[1]責準明細表!#REF!</definedName>
     <definedName name="_Fill2" hidden="1">[1]責準明細表!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">手順!#REF!</definedName>
     <definedName name="_FND2">#REF!</definedName>
     <definedName name="_LOV1">[4]Sheet2!$B$2:$B$5</definedName>
     <definedName name="_LOV2">[4]Sheet2!$B$8:$B$11</definedName>
@@ -442,14 +445,15 @@
     <definedName name="_LOV4">[4]Sheet2!$B$23:$B$31</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
+    <definedName name="_Regression_X" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="_Regression_X" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="_Regression_X" localSheetId="3">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="4">#REF!</definedName>
     <definedName name="_Regression_X">#REF!</definedName>
-    <definedName name="_Regression_X2" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X2" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X2" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="_Regression_X2" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X2" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X2" hidden="1">#REF!</definedName>
     <definedName name="_ｚｚ１">#REF!</definedName>
     <definedName name="①EBSカラム">#REF!</definedName>
@@ -503,38 +507,38 @@
     <definedName name="⑨成項目名">#REF!</definedName>
     <definedName name="⑨説明">#REF!</definedName>
     <definedName name="⑨入力">#REF!</definedName>
-    <definedName name="a" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="a" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="a" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="a" localSheetId="0">#REF!</definedName>
-    <definedName name="a" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="a" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="a" hidden="1">#REF!</definedName>
-    <definedName name="aa" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
+    <definedName name="aa" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
-    <definedName name="aaa" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
+    <definedName name="aaa" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="aaa" localSheetId="0">#REF!</definedName>
     <definedName name="aaa" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="AAAAA">#REF!</definedName>
     <definedName name="ACCOUNTEDPERIODTYPE1">#REF!</definedName>
     <definedName name="ACCOUNTSEGMENT1">#REF!</definedName>
-    <definedName name="AccountType" localSheetId="1">'[5]LOV''s'!$K$2:$K$37</definedName>
+    <definedName name="AccountType" localSheetId="2">'[5]LOV''s'!$K$2:$K$37</definedName>
     <definedName name="AccountType">'[6]LOV''s'!$K$2:$K$37</definedName>
-    <definedName name="AccountTypes" localSheetId="1">[7]LOV!$E$6:$E$8</definedName>
+    <definedName name="AccountTypes" localSheetId="2">[7]LOV!$E$6:$E$8</definedName>
     <definedName name="AccountTypes">[8]LOV!$E$6:$E$8</definedName>
     <definedName name="aplcode">#REF!</definedName>
     <definedName name="aplname">#REF!</definedName>
     <definedName name="APPSUSERNAME1">#REF!</definedName>
     <definedName name="AW">#REF!</definedName>
-    <definedName name="AX" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="AX" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="AX" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="AX" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="AX" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="AX" hidden="1">#REF!</definedName>
-    <definedName name="AZ" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="AZ" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="AZ" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="AZ" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="AZ" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="AZ" hidden="1">#REF!</definedName>
     <definedName name="b">#REF!</definedName>
-    <definedName name="BankBranchTypes" localSheetId="1">[7]LOV!$K$2:$K$5</definedName>
+    <definedName name="BankBranchTypes" localSheetId="2">[7]LOV!$K$2:$K$5</definedName>
     <definedName name="BankBranchTypes">[8]LOV!$K$2:$K$5</definedName>
     <definedName name="BB">#REF!</definedName>
     <definedName name="BUDGETCURRENCYCODE1">#REF!</definedName>
@@ -568,14 +572,14 @@
     <definedName name="ColumnHeadings1">#REF!</definedName>
     <definedName name="Command_Click">[10]!Command_Click</definedName>
     <definedName name="CONNECTSTRING1">#REF!</definedName>
-    <definedName name="Countries" localSheetId="1">[7]LOV!$A$2:$A$253</definedName>
+    <definedName name="Countries" localSheetId="2">[7]LOV!$A$2:$A$253</definedName>
     <definedName name="Countries">[8]LOV!$A$2:$A$253</definedName>
     <definedName name="CREATEGRAPH1">#REF!</definedName>
     <definedName name="CREATESUMMARYJNLS1">#REF!</definedName>
     <definedName name="_xlnm.Criteria">#REF!</definedName>
     <definedName name="CRITERIACOLUMN1">#REF!</definedName>
     <definedName name="CRP3に無いデータを抽出">#REF!</definedName>
-    <definedName name="CurrencyCodes" localSheetId="1">[7]LOV!$I$2:$I$227</definedName>
+    <definedName name="CurrencyCodes" localSheetId="2">[7]LOV!$I$2:$I$227</definedName>
     <definedName name="CurrencyCodes">[8]LOV!$I$2:$I$227</definedName>
     <definedName name="D">#REF!</definedName>
     <definedName name="_xlnm.Database">[11]PR!#REF!</definedName>
@@ -588,7 +592,7 @@
     <definedName name="DLOV_DesktopGlAccountsCrossValRulesPageDef_ConditionSegmentName_AccountSin_1" hidden="1">[13]_ADFDI_LOV!$C$12:$T$12</definedName>
     <definedName name="DLOV_DesktopGlAccountsCrossValRulesPageDef_ValidationSegmentName_AccountSin_0" hidden="1">[12]_ADFDI_LOV!$C$10:$G$10</definedName>
     <definedName name="DLOV_DesktopGlAccountsCrossValRulesPageDef_ValidationSegmentName_AccountSin_1" hidden="1">[13]_ADFDI_LOV!$C$14:$T$14</definedName>
-    <definedName name="DOM" localSheetId="1">[14]ドメイン定義書!$B$10:$AD$65500</definedName>
+    <definedName name="DOM" localSheetId="2">[14]ドメイン定義書!$B$10:$AD$65500</definedName>
     <definedName name="DOM">[15]ドメイン定義書!$B$10:$AD$65500</definedName>
     <definedName name="ENDPERIODNAME1">#REF!</definedName>
     <definedName name="ENDPERIODNUM1">#REF!</definedName>
@@ -642,23 +646,23 @@
     <definedName name="FUNCTIONALCURRENCY1">#REF!</definedName>
     <definedName name="ggg">#REF!</definedName>
     <definedName name="GWYUID1">#REF!</definedName>
-    <definedName name="ＧＷメッセージ一覧" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="ＧＷメッセージ一覧" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="ＧＷメッセージ一覧" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="ＧＷメッセージ一覧" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="ＧＷメッセージ一覧" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="ＧＷメッセージ一覧" hidden="1">#REF!</definedName>
-    <definedName name="H" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="H" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="H" localSheetId="0" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="H" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="hani">[17]DDICT!#REF!</definedName>
     <definedName name="hani2">[17]DDICT!#REF!</definedName>
     <definedName name="HTML_CodePage" hidden="1">932</definedName>
-    <definedName name="HTML_Control" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="HTML_Control" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="HTML_Control" localSheetId="0" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="HTML_Control" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
-    <definedName name="HTML_Control_copy" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="HTML_Control_copy" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="HTML_Control_copy" localSheetId="0" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="HTML_Control_copy" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
-    <definedName name="HTML_Control_Copy2" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="HTML_Control_Copy2" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="HTML_Control_Copy2" localSheetId="0" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="HTML_Control_Copy2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="HTML_Description" hidden="1">""</definedName>
@@ -686,51 +690,56 @@
     <definedName name="HTML1_8" hidden="1">"7/6/99"</definedName>
     <definedName name="HTML1_9" hidden="1">"OBM Program Office"</definedName>
     <definedName name="HTMLCount" hidden="1">1</definedName>
-    <definedName name="i" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="i" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="i" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="i" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="i" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="i" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="i" hidden="1">#REF!</definedName>
     <definedName name="IBM">#REF!</definedName>
     <definedName name="IMPORTDFF1">#REF!</definedName>
     <definedName name="JavaAppl">#REF!</definedName>
     <definedName name="JavaGUI">#REF!</definedName>
+    <definedName name="ｋ" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="ｋ" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="ｋ" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="ｋ" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="ｋ" localSheetId="0">#REF!</definedName>
-    <definedName name="ｋ" localSheetId="3">#REF!</definedName>
+    <definedName name="ｋ" localSheetId="4">#REF!</definedName>
     <definedName name="ｋ">#REF!</definedName>
-    <definedName name="kk" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="kk" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="kk" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="kk" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="kk" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="kk" hidden="1">#REF!</definedName>
     <definedName name="LABELTEXTCOLUMN1">#REF!</definedName>
     <definedName name="LABELTEXTROW1">#REF!</definedName>
-    <definedName name="List" localSheetId="1">#REF!</definedName>
     <definedName name="List" localSheetId="2">#REF!</definedName>
+    <definedName name="List" localSheetId="3">#REF!</definedName>
     <definedName name="List" localSheetId="0">#REF!</definedName>
-    <definedName name="List" localSheetId="3">#REF!</definedName>
+    <definedName name="List" localSheetId="4">#REF!</definedName>
     <definedName name="List">#REF!</definedName>
     <definedName name="LOV_DesktopGlAccountsCrossValRulesPageDef_AccountSin" hidden="1">[12]_ADFDI_LOV!$D$2:$E$2</definedName>
+    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_FromCurrency" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_FromCurrency" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_FromCurrency" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_FromCurrency" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_FromCurrency" localSheetId="0">#REF!</definedName>
-    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_FromCurrency" localSheetId="3">#REF!</definedName>
+    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_FromCurrency" localSheetId="4">#REF!</definedName>
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_FromCurrency">#REF!</definedName>
+    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ModeFlag" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ModeFlag" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ModeFlag" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ModeFlag" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ModeFlag" localSheetId="0">#REF!</definedName>
-    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ModeFlag" localSheetId="3">#REF!</definedName>
+    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ModeFlag" localSheetId="4">#REF!</definedName>
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ModeFlag">#REF!</definedName>
+    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ToCurrency" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ToCurrency" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ToCurrency" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ToCurrency" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ToCurrency" localSheetId="0">#REF!</definedName>
-    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ToCurrency" localSheetId="3">#REF!</definedName>
+    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ToCurrency" localSheetId="4">#REF!</definedName>
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ToCurrency">#REF!</definedName>
+    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_UserConversionType" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_UserConversionType" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_UserConversionType" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_UserConversionType" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_UserConversionType" localSheetId="0">#REF!</definedName>
-    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_UserConversionType" localSheetId="3">#REF!</definedName>
+    <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_UserConversionType" localSheetId="4">#REF!</definedName>
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_UserConversionType">#REF!</definedName>
     <definedName name="LOV_oracle_apps_hcm_enterpriseSetup_spreadsheetLoader_ui_HcmGenericSpreadsheetPageDef_PVAL004" hidden="1">[18]_ADFDI_LOV!$C$2:$E$2</definedName>
     <definedName name="LOV_oracle_apps_hcm_enterpriseSetup_spreadsheetLoader_ui_HcmGenericSpreadsheetPageDef_PVAL021" hidden="1">[18]_ADFDI_LOV!$C$4:$AP$4</definedName>
@@ -747,14 +756,14 @@
     <definedName name="LOV_pol_mileage_FinExmPolicyMileageAdfDiPageDef_FuelType" hidden="1">[21]_ADFDI_LOV!$D$6:$G$6</definedName>
     <definedName name="LOV_pol_mileage_FinExmPolicyMileageAdfDiPageDef_VehicleCategory" hidden="1">[22]_ADFDI_LOV!$D$2:$F$2</definedName>
     <definedName name="LOV_pol_mileage_FinExmPolicyMileageAdfDiPageDef_VehicleType" hidden="1">[21]_ADFDI_LOV!$D$4:$I$4</definedName>
-    <definedName name="matrix" localSheetId="1">[23]AFF勘定科目!#REF!</definedName>
-    <definedName name="matrix" localSheetId="2">[24]AFF勘定科目!#REF!</definedName>
+    <definedName name="matrix" localSheetId="2">[23]AFF勘定科目!#REF!</definedName>
+    <definedName name="matrix" localSheetId="3">[24]AFF勘定科目!#REF!</definedName>
     <definedName name="matrix" localSheetId="0">[24]AFF勘定科目!#REF!</definedName>
-    <definedName name="matrix" localSheetId="3">[24]AFF勘定科目!#REF!</definedName>
+    <definedName name="matrix" localSheetId="4">[24]AFF勘定科目!#REF!</definedName>
     <definedName name="matrix">[24]AFF勘定科目!#REF!</definedName>
     <definedName name="Module1.MOTOR">[9]!Module1.MOTOR</definedName>
     <definedName name="MOTOR">[25]!MOTOR</definedName>
-    <definedName name="mrc" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="mrc" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="mrc" localSheetId="0" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="mrc" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="NameJPN">"テキスト 116"</definedName>
@@ -764,9 +773,9 @@
     <definedName name="NUMBEROFDETAILFIELDS1">#REF!</definedName>
     <definedName name="NUMBEROFHEADERFIELDS1">#REF!</definedName>
     <definedName name="ODBCDATASOURCE1">#REF!</definedName>
-    <definedName name="ｐ" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="ｐ" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="ｐ" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="ｐ" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="ｐ" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="ｐ" hidden="1">#REF!</definedName>
     <definedName name="PERIODSETNAME1">#REF!</definedName>
     <definedName name="PERIODYEAR1">#REF!</definedName>
@@ -774,20 +783,20 @@
     <definedName name="POSTERRORSTOSUSP1">#REF!</definedName>
     <definedName name="PPｻｲｽﾞ">[26]外部ﾃﾞｨｽｸ!$G$1</definedName>
     <definedName name="PP数">[26]外部ﾃﾞｨｽｸ!$H$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">[23]AFF勘定科目!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">[24]AFF勘定科目!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">[23]AFF勘定科目!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">[24]AFF勘定科目!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">[24]AFF勘定科目!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">[24]AFF勘定科目!#REF!</definedName>
     <definedName name="_xlnm.Print_Area">[24]AFF勘定科目!#REF!</definedName>
     <definedName name="Print_Area2">#REF!</definedName>
     <definedName name="Print_Area3">#REF!</definedName>
     <definedName name="Print_Area4">#REF!</definedName>
     <definedName name="Pキーワード">#REF!</definedName>
     <definedName name="P実体候補">#REF!</definedName>
-    <definedName name="ｑ" localSheetId="1">[23]AFF勘定科目!#REF!</definedName>
-    <definedName name="ｑ" localSheetId="2">[24]AFF勘定科目!#REF!</definedName>
+    <definedName name="ｑ" localSheetId="2">[23]AFF勘定科目!#REF!</definedName>
+    <definedName name="ｑ" localSheetId="3">[24]AFF勘定科目!#REF!</definedName>
     <definedName name="ｑ" localSheetId="0">#REF!</definedName>
-    <definedName name="ｑ" localSheetId="3">[24]AFF勘定科目!#REF!</definedName>
+    <definedName name="ｑ" localSheetId="4">[24]AFF勘定科目!#REF!</definedName>
     <definedName name="ｑ">[24]AFF勘定科目!#REF!</definedName>
     <definedName name="READONLYBACKCOLOUR1">#REF!</definedName>
     <definedName name="READWRITEBACKCOLOUR1">#REF!</definedName>
@@ -798,9 +807,9 @@
     <definedName name="RESPONSIBILITYNAME1">#REF!</definedName>
     <definedName name="RowDetails1">#REF!</definedName>
     <definedName name="ROWSTOUPLOAD1">#REF!</definedName>
-    <definedName name="s" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="s" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="s" localSheetId="0" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
-    <definedName name="s" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="s" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="s" hidden="1">#REF!</definedName>
     <definedName name="SEG1_DIRECTION1">#REF!</definedName>
     <definedName name="SEG1_FROM1">#REF!</definedName>
@@ -853,20 +862,20 @@
     <definedName name="Set.of.Books">#REF!</definedName>
     <definedName name="SETOFBOOKSID1">#REF!</definedName>
     <definedName name="SETOFBOOKSNAME1">#REF!</definedName>
-    <definedName name="sheet1" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="sheet1" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="sheet1" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="sheet1" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="sheet1" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="sheet1" hidden="1">#REF!</definedName>
     <definedName name="Sheet121">#REF!</definedName>
-    <definedName name="Sheet2" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="Sheet2" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="Sheet2" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="Sheet2" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="Sheet2" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="Sheet2" hidden="1">#REF!</definedName>
     <definedName name="SheetT">#REF!</definedName>
     <definedName name="SOURCE">#REF!</definedName>
-    <definedName name="SPEC_CALENDAR_TYPE" localSheetId="1">[27]LOV!$J$4:$J$7</definedName>
+    <definedName name="SPEC_CALENDAR_TYPE" localSheetId="2">[27]LOV!$J$4:$J$7</definedName>
     <definedName name="SPEC_CALENDAR_TYPE">[28]LOV!$J$4:$J$7</definedName>
-    <definedName name="sss" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="sss" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="sss" localSheetId="0" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="sss" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="st_descflex">#REF!</definedName>
@@ -874,7 +883,7 @@
     <definedName name="STARTJOURNALIMPORT1">#REF!</definedName>
     <definedName name="STARTPERIODNAME1">#REF!</definedName>
     <definedName name="STARTPERIODNUM1">#REF!</definedName>
-    <definedName name="t" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="t" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="t" localSheetId="0" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="t" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="TABLE_ENT">#REF!</definedName>
@@ -883,71 +892,78 @@
     <definedName name="TEMPLATENUMBER1">#REF!</definedName>
     <definedName name="TEMPLATESTYLE1">#REF!</definedName>
     <definedName name="TEMPLATETYPE1">#REF!</definedName>
-    <definedName name="TEST" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="TEST" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="TEST" localSheetId="0" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="TEST" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="test3">#REF!</definedName>
-    <definedName name="TOL_TYPE" localSheetId="1">[27]LOV!$J$12:$J$13</definedName>
+    <definedName name="TOL_TYPE" localSheetId="2">[27]LOV!$J$12:$J$13</definedName>
     <definedName name="TOL_TYPE">[28]LOV!$J$12:$J$13</definedName>
     <definedName name="UI">#REF!</definedName>
     <definedName name="UPDATELOGICTYPE1">#REF!</definedName>
-    <definedName name="VV" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="VV" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="VV" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="VV" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="VV" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="VV" hidden="1">#REF!</definedName>
-    <definedName name="ｗ" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="ｗ" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="ｗ" localSheetId="0" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="ｗ" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
-    <definedName name="wrn.仕様書表紙." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
+    <definedName name="wrn.仕様書表紙." localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="wrn.仕様書表紙." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="wrn.仕様書表紙." hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="XX">#REF!</definedName>
-    <definedName name="YesNo" localSheetId="1">[7]LOV!$E$2:$E$3</definedName>
+    <definedName name="YesNo" localSheetId="2">[7]LOV!$E$2:$E$3</definedName>
     <definedName name="YesNo">[8]LOV!$E$2:$E$3</definedName>
-    <definedName name="Z_059725D5_C79B_4477_8F19_4C6686D8A1D3_.wvu.Cols" localSheetId="3" hidden="1">予算管理!#REF!</definedName>
-    <definedName name="Z_59BAF27D_E3C7_4B81_9D74_D634FE61EE7E_.wvu.Cols" localSheetId="3" hidden="1">予算管理!#REF!</definedName>
-    <definedName name="Z_82054400_573E_4B0C_BEE9_507A05D96CAB_.wvu.Cols" localSheetId="3" hidden="1">予算管理!#REF!</definedName>
-    <definedName name="Z_B37F8F0F_A298_466E_8C95_00616192A0F5_.wvu.FilterData" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="Z_059725D5_C79B_4477_8F19_4C6686D8A1D3_.wvu.Cols" localSheetId="4" hidden="1">予算管理!#REF!</definedName>
+    <definedName name="Z_59BAF27D_E3C7_4B81_9D74_D634FE61EE7E_.wvu.Cols" localSheetId="4" hidden="1">予算管理!#REF!</definedName>
+    <definedName name="Z_82054400_573E_4B0C_BEE9_507A05D96CAB_.wvu.Cols" localSheetId="4" hidden="1">予算管理!#REF!</definedName>
+    <definedName name="Z_A172DD35_D70F_4C8C_BA73_E987DBBC7094_.wvu.FilterData" localSheetId="1" hidden="1">手順!#REF!</definedName>
     <definedName name="Z_B37F8F0F_A298_466E_8C95_00616192A0F5_.wvu.FilterData" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="Z_B37F8F0F_A298_466E_8C95_00616192A0F5_.wvu.FilterData" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="Z_B37F8F0F_A298_466E_8C95_00616192A0F5_.wvu.FilterData" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="Z_B37F8F0F_A298_466E_8C95_00616192A0F5_.wvu.FilterData" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="Z_B37F8F0F_A298_466E_8C95_00616192A0F5_.wvu.FilterData" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="Z_B37F8F0F_A298_466E_8C95_00616192A0F5_.wvu.FilterData" hidden="1">#REF!</definedName>
+    <definedName name="Z_E7CED8DC_9C47_4538_A60D_CEF6B1A92BDC_.wvu.FilterData" localSheetId="1" hidden="1">手順!#REF!</definedName>
+    <definedName name="Z_ED154B17_F69F_4180_A9E9_3752822651E2_.wvu.FilterData" localSheetId="1" hidden="1">手順!#REF!</definedName>
+    <definedName name="Z_F15167EB_8CC4_4994_B117_B3CC95D29A0B_.wvu.FilterData" localSheetId="1" hidden="1">手順!#REF!</definedName>
+    <definedName name="あ" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="あ" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="あ" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="あ" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="あ" localSheetId="0">#REF!</definedName>
-    <definedName name="あ" localSheetId="3">#REF!</definedName>
+    <definedName name="あ" localSheetId="4">#REF!</definedName>
     <definedName name="あ">#REF!</definedName>
-    <definedName name="あ2" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="あ2" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="あ2" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="あ2" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="あ2" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="あ2" hidden="1">#REF!</definedName>
     <definedName name="あｓｆ">[29]Sheet2!$B$8:$B$11</definedName>
-    <definedName name="あああ" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="あああ" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="あああ" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="あああ" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="あああ" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="あああ" hidden="1">#REF!</definedName>
+    <definedName name="い" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="い" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="い" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="い" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="い" localSheetId="0">#REF!</definedName>
-    <definedName name="い" localSheetId="3">#REF!</definedName>
+    <definedName name="い" localSheetId="4">#REF!</definedName>
     <definedName name="い">#REF!</definedName>
-    <definedName name="い2" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="い2" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="い2" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="い2" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="い2" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="い2" hidden="1">#REF!</definedName>
+    <definedName name="う" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="う" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="う" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="う" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="う" localSheetId="0">'[30]６（過去）'!#REF!</definedName>
-    <definedName name="う" localSheetId="3">#REF!</definedName>
+    <definedName name="う" localSheetId="4">#REF!</definedName>
     <definedName name="う">#REF!</definedName>
-    <definedName name="う2" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="う2" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="う2" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="う2" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="う2" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="う2" hidden="1">#REF!</definedName>
-    <definedName name="ええ" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="ええ" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="ええ" localSheetId="0" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="ええ" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
-    <definedName name="お" localSheetId="1" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
+    <definedName name="お" localSheetId="2" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="お" localSheetId="0" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="お" hidden="1">{"'Sheet1'!$B$5:$H$34"}</definedName>
     <definedName name="オプション確認結果">#REF!</definedName>
@@ -958,14 +974,14 @@
     <definedName name="サブシステム">[31]障害検出率!#REF!</definedName>
     <definedName name="ｻﾌﾞｼｽﾃﾑ付与2">[32]担当者別ﾊﾞｯﾁ代表一覧!#REF!</definedName>
     <definedName name="サブシステム名">#REF!</definedName>
-    <definedName name="サンプル" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="サンプル" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="サンプル" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="サンプル" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="サンプル" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="サンプル" hidden="1">#REF!</definedName>
     <definedName name="システム名">#REF!</definedName>
-    <definedName name="タスクドキュメント１" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="タスクドキュメント１" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="タスクドキュメント１" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="タスクドキュメント１" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="タスクドキュメント１" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="タスクドキュメント１" hidden="1">#REF!</definedName>
     <definedName name="ち">#REF!</definedName>
     <definedName name="チーム名">#REF!</definedName>
@@ -974,22 +990,23 @@
     <definedName name="ペースト用">[33]パラメータ!#REF!</definedName>
     <definedName name="ま">[34]部支店・事務所!$D$2:$D$69</definedName>
     <definedName name="リンク先セル色">[33]パラメータ!#REF!</definedName>
-    <definedName name="安藤" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="安藤" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="安藤" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="安藤" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="安藤" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="安藤" hidden="1">#REF!</definedName>
     <definedName name="案件名">#REF!</definedName>
     <definedName name="会社名">#REF!</definedName>
     <definedName name="開発_テストシステムHW合計">#REF!</definedName>
     <definedName name="開発単位">#REF!</definedName>
+    <definedName name="関連表" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="関連表" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="関連表" localSheetId="3">#REF!</definedName>
+    <definedName name="関連表" localSheetId="4">#REF!</definedName>
     <definedName name="関連表">#REF!</definedName>
-    <definedName name="関連表2" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="関連表2" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="関連表2" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="関連表2" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="関連表2" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="関連表2" hidden="1">#REF!</definedName>
     <definedName name="基本キー">#REF!</definedName>
     <definedName name="既存システム">#REF!</definedName>
@@ -1023,9 +1040,9 @@
     <definedName name="索引7">#REF!</definedName>
     <definedName name="索引P">#REF!</definedName>
     <definedName name="仕訳ソース">'[16]６（過去）'!#REF!</definedName>
-    <definedName name="仕様書" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="仕様書" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="仕様書" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="仕様書" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="仕様書" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="仕様書" hidden="1">#REF!</definedName>
     <definedName name="実体候補">#REF!</definedName>
     <definedName name="実体候補２">#REF!</definedName>
@@ -1044,9 +1061,9 @@
     <definedName name="生産717">#REF!</definedName>
     <definedName name="生産717営業">#REF!</definedName>
     <definedName name="組合員区分">[36]コード!$S:$X</definedName>
-    <definedName name="束原" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="束原" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="束原" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="束原" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="束原" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="束原" hidden="1">#REF!</definedName>
     <definedName name="属性">#REF!</definedName>
     <definedName name="多摩合計">#REF!</definedName>
@@ -1059,9 +1076,9 @@
     <definedName name="池尻差引き">#REF!</definedName>
     <definedName name="調整">#REF!</definedName>
     <definedName name="導入時期">#REF!</definedName>
-    <definedName name="導入時期う" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="導入時期う" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="導入時期う" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="導入時期う" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="導入時期う" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="導入時期う" hidden="1">#REF!</definedName>
     <definedName name="倍率">#REF!</definedName>
     <definedName name="備考">#REF!</definedName>
@@ -1080,8 +1097,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="R0008708 - 個人用ビュー" guid="{A5DCC26B-C60D-42D0-9CAD-BC67DFA2356B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1180" tabRatio="924" activeSheetId="5"/>
     <customWorkbookView name="R0008709 - 個人用ビュー" guid="{031A89B7-34D4-4502-ABB1-60F92001A7ED}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="924" activeSheetId="1"/>
-    <customWorkbookView name="R0008708 - 個人用ビュー" guid="{A5DCC26B-C60D-42D0-9CAD-BC67DFA2356B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1180" tabRatio="924" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1098,7 +1115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="156">
   <si>
     <t>目次</t>
   </si>
@@ -2074,10 +2091,6 @@
     <phoneticPr fontId="15"/>
   </si>
   <si>
-    <t>ナビ</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
     <t>Yes</t>
     <phoneticPr fontId="15"/>
   </si>
@@ -2201,10 +2214,6 @@
     <phoneticPr fontId="15"/>
   </si>
   <si>
-    <t>設定と保守 &gt;値セットの管理</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
     <t>「値の管理」ボタンをクリック</t>
     <rPh sb="1" eb="2">
       <t>アタイ</t>
@@ -2268,12 +2277,207 @@
     </rPh>
     <phoneticPr fontId="15"/>
   </si>
+  <si>
+    <t>SCSK　二村</t>
+    <rPh sb="5" eb="7">
+      <t>フタムラ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>2024年度追加</t>
+    <rPh sb="4" eb="6">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>2024年度予算</t>
+    <rPh sb="4" eb="6">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨサン</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>★設定後ESSジョブ「シナリオ・ディメンション・メンバーの作成」を実行する。（パラメータはNULL）</t>
+    <rPh sb="1" eb="4">
+      <t>セッテイゴ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>手順</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="62"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>シート</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>説明、その他</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>「値セットの管理」で検索
+※複数の検索候補のうち、「値セットの管理」タスクを選択</t>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="62"/>
+  </si>
+  <si>
+    <t>検索画面への遷移</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>設定画面より画面右端の「タスク」を開き、「検索」をクリックします。この画面内の検索バーは使用しません。</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="66"/>
+  </si>
+  <si>
+    <t>検索バーに検索内容を入力してタスクを検索します。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="66"/>
+  </si>
+  <si>
+    <t>GL予算_2</t>
+  </si>
+  <si>
+    <t>タスク</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>設定および保守 &gt; タスク &gt; 検索</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>値セットの管理</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>「作成（＋）」ボタンをクリック</t>
+    <rPh sb="1" eb="3">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>「保存して閉じる」ボタンをクリック</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="56">
+  <fonts count="67">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2690,8 +2894,82 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Meiryo ui"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color indexed="9"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2907,8 +3185,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -3399,8 +3683,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3661,8 +4036,12 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3807,13 +4186,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="106" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="104"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3851,57 +4224,90 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="45" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="35" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="104" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="56" fillId="0" borderId="2" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="6" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="56" fillId="0" borderId="2" xfId="104" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="104" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="6" xfId="104" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="56" fillId="0" borderId="2" xfId="104" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="104" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="111" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="111" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="60" fillId="39" borderId="1" xfId="111" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="36" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="59" fillId="39" borderId="1" xfId="111" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="111" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="37" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="111" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="64" fillId="3" borderId="43" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="38" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="64" fillId="3" borderId="44" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="39" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="1" xfId="112" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="32" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="45" xfId="112" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="2" xfId="112" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="33" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="45" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="2" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="34" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="46" xfId="112" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="5" borderId="32" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="38" xfId="112" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="111" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="1" xfId="112" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="1" xfId="112" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="1" xfId="112" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="46" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="64" fillId="3" borderId="30" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="33" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="33" xfId="112" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="33" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="37" xfId="112" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="33" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="2" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="33" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="104" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="38" borderId="23" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3938,32 +4344,74 @@
     <xf numFmtId="0" fontId="27" fillId="5" borderId="31" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="27" fillId="5" borderId="32" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="33" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="40" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="41" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="42" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="33" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="32" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="33" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="33" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="34" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="35" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="36" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="37" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="38" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="39" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3977,9 +4425,20 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="104" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="113">
     <cellStyle name="_ADFDI_TableCellStyle" xfId="31"/>
     <cellStyle name="20% - Accent1 2" xfId="67"/>
     <cellStyle name="20% - Accent2 2" xfId="71"/>
@@ -4055,6 +4514,7 @@
     <cellStyle name="標準 2 2 2" xfId="106"/>
     <cellStyle name="標準 2 3" xfId="35"/>
     <cellStyle name="標準 2 3 2" xfId="101"/>
+    <cellStyle name="標準 2 3 3" xfId="112"/>
     <cellStyle name="標準 2 4" xfId="38"/>
     <cellStyle name="標準 2 4 2" xfId="103"/>
     <cellStyle name="標準 2 5" xfId="43"/>
@@ -4091,11 +4551,14 @@
     <cellStyle name="標準 6 4" xfId="27"/>
     <cellStyle name="標準 7" xfId="22"/>
     <cellStyle name="標準 8" xfId="45"/>
+    <cellStyle name="標準 9" xfId="111"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FFFF66CC"/>
       <color rgb="FFD8D8D8"/>
       <color rgb="FF00FFFF"/>
     </mruColors>
@@ -4112,6 +4575,525 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>86733</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect b="58588"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="336550" y="3606800"/>
+          <a:ext cx="10571490" cy="2307772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>54135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="336551" y="13512800"/>
+          <a:ext cx="10566399" cy="5578635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>420915</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>116115</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10617201" y="5143500"/>
+          <a:ext cx="302985" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>130628</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>174173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>359227</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="乗算 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4416878" y="4161973"/>
+          <a:ext cx="2578099" cy="642258"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>48314</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="337457" y="6379029"/>
+          <a:ext cx="12311743" cy="6971628"/>
+          <a:chOff x="370114" y="5595257"/>
+          <a:chExt cx="11647715" cy="5795971"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="図 6"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:srcRect r="1069"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="370114" y="5595257"/>
+            <a:ext cx="11647715" cy="5795971"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10167257" y="7554685"/>
+            <a:ext cx="370114" cy="217715"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="乗算 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4855026" y="6226629"/>
+            <a:ext cx="2808514" cy="533401"/>
+          </a:xfrm>
+          <a:prstGeom prst="mathMultiply">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>511628</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2339521" y="14236700"/>
+          <a:ext cx="2458357" cy="326571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>36286</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="線吹き出し 1 (枠付き) 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7164613" y="4354286"/>
+          <a:ext cx="1852387" cy="517072"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 51866"/>
+            <a:gd name="adj4" fmla="val -43398"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>この検索バーは使用しません。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2481943</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="線吹き出し 1 (枠付き) 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4863193" y="14900730"/>
+          <a:ext cx="1771650" cy="489857"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val -80379"/>
+            <a:gd name="adj4" fmla="val -43280"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>この検索バーを使用します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4344,7 +5326,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4613,6 +5595,142 @@
       <sheetName val="表紙"/>
       <sheetName val="サマリー"/>
       <sheetName val="TSM Server"/>
+      <sheetName val="加入老名情報(2.3.1.3.2)"/>
+      <sheetName val="加入者属性情報(10.5*5)"/>
+      <sheetName val="個人型受給者情報(1.2.3.2)"/>
+      <sheetName val="再投賃結果按分情報(7.5.1)"/>
+      <sheetName val="変更前従業員属性惁報(2.1.2.1)"/>
+      <sheetName val="加兡者属性情報(5.3.4.3)"/>
+      <sheetName val="加兡者別商品売却情報(6.4.1)"/>
+      <sheetName val="加入者刡商品売却情報(6.4.1)"/>
+      <sheetName val="加入老別売却指図取引明細（10.3）"/>
+      <sheetName val="加入老別商品売却情報(6.4.1)"/>
+      <sheetName val="保按数量(5.2.3.3)"/>
+      <sheetName val="支払済ｽﾃﭰﾀｽ（5.3.2）"/>
+      <sheetName val="加入老属性情報(5.3.3.2)"/>
+      <sheetName val="33003(3.4)"/>
+      <sheetName val="加入者キヸ情報(8.3.1)"/>
+      <sheetName val="加入者塞性情報(5.2.2)"/>
+      <sheetName val="変更前従業員属性_報(2.1.2.1)"/>
+      <sheetName val="加_者属性情報(5.3.4.3)"/>
+      <sheetName val="加_者別商品売却情報(6.4.1)"/>
+      <sheetName val="加入者_商品売却情報(6.4.1)"/>
+      <sheetName val="支払済ｽﾃ_ﾀｽ（5.3.2）"/>
+      <sheetName val="Cover"/>
+      <sheetName val="改定履歴 "/>
+      <sheetName val="目次"/>
+      <sheetName val=" IHS設定"/>
+      <sheetName val="WAS基本設定"/>
+      <sheetName val="WAS設定（DB）"/>
+      <sheetName val="WAS設定（サーバ）"/>
+      <sheetName val="pfcaドライバ2.2.1インストール"/>
+      <sheetName val="pfcaドライバ2.2.1コンフィグ"/>
+      <sheetName val="リスト"/>
+      <sheetName val="加入者属性情報(5.3.19"/>
+      <sheetName val="進捗表(ISOL）"/>
+      <sheetName val="集計表（ISOL）　ｄｏｎ’ｔ　ｔｏｕｃｈ"/>
+      <sheetName val="シェル一覧(改訂案)"/>
+      <sheetName val="A-AUTO運用ルール(2003.11.28)"/>
+      <sheetName val="A-AUTO命名規約(2003.12.17)"/>
+      <sheetName val="ネットワーク基本"/>
+      <sheetName val="ネットワーク一覧"/>
+      <sheetName val="シェル一覧"/>
+      <sheetName val="シェル一覧(改訂)"/>
+      <sheetName val="１－１"/>
+      <sheetName val="別紙１"/>
+      <sheetName val="１－２"/>
+      <sheetName val="支払指図書データ（困窮時）(5ĮÒ.1.3)"/>
+      <sheetName val="加入者ｽﾃｰﾀｽ等 (5.1.2)栠"/>
+      <sheetName val="個社機能)概要"/>
+      <sheetName val="個社機能)詳細"/>
+      <sheetName val="共通機能記述（概要）"/>
+      <sheetName val="変更履歴"/>
+      <sheetName val="定義書"/>
+      <sheetName val="処理記述"/>
+      <sheetName val="パラメータ領域定義"/>
+      <sheetName val="JOB一覧 (給与)"/>
+      <sheetName val="JOB一覧 (賞与)"/>
+      <sheetName val="JOB一覧 (差額）"/>
+      <sheetName val="JOB一覧 (単独年調）"/>
+      <sheetName val="JOB一覧(年個）"/>
+      <sheetName val="データ編集 (HEN001)"/>
+      <sheetName val="データ編集 (HEN002)"/>
+      <sheetName val="データ編集 (HEN003)"/>
+      <sheetName val="データ編集 (GIPA035)"/>
+      <sheetName val="データ編集 (GIPZ005)"/>
+      <sheetName val="データ編集 (GIPZ074)"/>
+      <sheetName val="データ編集 (GIPZ075)"/>
+      <sheetName val="オペ表示項目一覧"/>
+      <sheetName val="エラーメッセージ"/>
+      <sheetName val="補足説明"/>
+      <sheetName val="フォーム・共通機能記述（概要）"/>
+      <sheetName val="JOBｸﾞﾙｰﾌﾟﾌﾛｰ"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛｰ (2)"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛｰ"/>
+      <sheetName val="JOBﾌﾛｰ原紙"/>
+      <sheetName val="☆★☆参考→"/>
+      <sheetName val="Ｘweb_ＪＯＢ－カタプロ"/>
+      <sheetName val="Ｘweb_ＪＯＢ構成"/>
+      <sheetName val="XJOBﾈｯﾄ"/>
+      <sheetName val="BIPG120_Ｐ６作表"/>
+      <sheetName val="旧031114)BIPG120_Ｐ６作表"/>
+      <sheetName val="Ｘ旧）BIPG120_Ｐ６作表"/>
+      <sheetName val="031127)BIPG120_Ｐ６作表"/>
+      <sheetName val="目次・共通"/>
+      <sheetName val="目次・外部ｺｰﾄﾞ"/>
+      <sheetName val="目次・受信"/>
+      <sheetName val="目次・送信"/>
+      <sheetName val="目次・給与"/>
+      <sheetName val="目次・賞与"/>
+      <sheetName val="目次・差額"/>
+      <sheetName val="目次・社保"/>
+      <sheetName val="目次・私共済"/>
+      <sheetName val="目次・地方税"/>
+      <sheetName val="目次・年調"/>
+      <sheetName val="目次・振込"/>
+      <sheetName val="目次・会社情報"/>
+      <sheetName val="目次・臨時"/>
+      <sheetName val="目次・帳票"/>
+      <sheetName val="目次・業務"/>
+      <sheetName val="変更管理シート"/>
+      <sheetName val="帳票（年個）"/>
+      <sheetName val="JOB一覧(共通）"/>
+      <sheetName val="運用"/>
+      <sheetName val="ﾃｽﾄｹｰｽ一覧"/>
+      <sheetName val="☆データ条件★"/>
+      <sheetName val="★データ編集Ⅱ-2-(1)"/>
+      <sheetName val="☆B010計算"/>
+      <sheetName val="☆B010(A031)振込計算"/>
+      <sheetName val="☆★☆ITEM→"/>
+      <sheetName val="☆★☆ITEM→ (2)"/>
+      <sheetName val="Ｘ　☆★☆計算→"/>
+      <sheetName val="人DB給DBﾏｯﾁﾝｸﾞ"/>
+      <sheetName val="I_Oﾌｧｲﾙ"/>
+      <sheetName val="I_OﾌｧｲﾙＸ"/>
+      <sheetName val="原本"/>
+      <sheetName val="ﾃｽﾄｹｰｽ一覧(2Ｘ)"/>
+      <sheetName val="予算問題点 "/>
+      <sheetName val="問題点"/>
+      <sheetName val="インプット (2)"/>
+      <sheetName val="一覧表"/>
+      <sheetName val="１経費台帳"/>
+      <sheetName val="２全経費科目集計表"/>
+      <sheetName val="３消費税の計算書"/>
+      <sheetName val="４経費集計表"/>
+      <sheetName val="５製品製造原価報告書"/>
+      <sheetName val="６損益計算書"/>
+      <sheetName val="７総勘定元帳"/>
+      <sheetName val="８試算表"/>
+      <sheetName val="９貸借対照表"/>
+      <sheetName val="１０雑収雑損一覧"/>
+      <sheetName val="１１関係会社売上仕入一覧表"/>
+      <sheetName val="ＪＯＢ単位"/>
+      <sheetName val="JOB単位ｹｰｽ一覧"/>
+      <sheetName val="ＪＯＢ単位BIPB010"/>
+      <sheetName val="ＪＯＢ単位BIPB201"/>
+      <sheetName val="ＪＯＢ単位NIPB202"/>
+      <sheetName val="ＪＯＢ単位BIPBZ00)"/>
+      <sheetName val="サンプル（ＪＯＢ単位）"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -4782,6 +5900,142 @@
       <sheetData sheetId="164"/>
       <sheetData sheetId="165"/>
       <sheetData sheetId="166"/>
+      <sheetData sheetId="167" refreshError="1"/>
+      <sheetData sheetId="168" refreshError="1"/>
+      <sheetData sheetId="169" refreshError="1"/>
+      <sheetData sheetId="170" refreshError="1"/>
+      <sheetData sheetId="171" refreshError="1"/>
+      <sheetData sheetId="172" refreshError="1"/>
+      <sheetData sheetId="173" refreshError="1"/>
+      <sheetData sheetId="174" refreshError="1"/>
+      <sheetData sheetId="175" refreshError="1"/>
+      <sheetData sheetId="176" refreshError="1"/>
+      <sheetData sheetId="177" refreshError="1"/>
+      <sheetData sheetId="178" refreshError="1"/>
+      <sheetData sheetId="179" refreshError="1"/>
+      <sheetData sheetId="180" refreshError="1"/>
+      <sheetData sheetId="181" refreshError="1"/>
+      <sheetData sheetId="182" refreshError="1"/>
+      <sheetData sheetId="183" refreshError="1"/>
+      <sheetData sheetId="184" refreshError="1"/>
+      <sheetData sheetId="185" refreshError="1"/>
+      <sheetData sheetId="186" refreshError="1"/>
+      <sheetData sheetId="187" refreshError="1"/>
+      <sheetData sheetId="188" refreshError="1"/>
+      <sheetData sheetId="189" refreshError="1"/>
+      <sheetData sheetId="190" refreshError="1"/>
+      <sheetData sheetId="191" refreshError="1"/>
+      <sheetData sheetId="192" refreshError="1"/>
+      <sheetData sheetId="193" refreshError="1"/>
+      <sheetData sheetId="194" refreshError="1"/>
+      <sheetData sheetId="195"/>
+      <sheetData sheetId="196"/>
+      <sheetData sheetId="197"/>
+      <sheetData sheetId="198" refreshError="1"/>
+      <sheetData sheetId="199"/>
+      <sheetData sheetId="200"/>
+      <sheetData sheetId="201" refreshError="1"/>
+      <sheetData sheetId="202" refreshError="1"/>
+      <sheetData sheetId="203" refreshError="1"/>
+      <sheetData sheetId="204" refreshError="1"/>
+      <sheetData sheetId="205" refreshError="1"/>
+      <sheetData sheetId="206" refreshError="1"/>
+      <sheetData sheetId="207" refreshError="1"/>
+      <sheetData sheetId="208"/>
+      <sheetData sheetId="209"/>
+      <sheetData sheetId="210"/>
+      <sheetData sheetId="211" refreshError="1"/>
+      <sheetData sheetId="212" refreshError="1"/>
+      <sheetData sheetId="213"/>
+      <sheetData sheetId="214"/>
+      <sheetData sheetId="215"/>
+      <sheetData sheetId="216"/>
+      <sheetData sheetId="217"/>
+      <sheetData sheetId="218"/>
+      <sheetData sheetId="219"/>
+      <sheetData sheetId="220" refreshError="1"/>
+      <sheetData sheetId="221" refreshError="1"/>
+      <sheetData sheetId="222" refreshError="1"/>
+      <sheetData sheetId="223" refreshError="1"/>
+      <sheetData sheetId="224" refreshError="1"/>
+      <sheetData sheetId="225" refreshError="1"/>
+      <sheetData sheetId="226" refreshError="1"/>
+      <sheetData sheetId="227" refreshError="1"/>
+      <sheetData sheetId="228" refreshError="1"/>
+      <sheetData sheetId="229" refreshError="1"/>
+      <sheetData sheetId="230" refreshError="1"/>
+      <sheetData sheetId="231" refreshError="1"/>
+      <sheetData sheetId="232" refreshError="1"/>
+      <sheetData sheetId="233" refreshError="1"/>
+      <sheetData sheetId="234" refreshError="1"/>
+      <sheetData sheetId="235"/>
+      <sheetData sheetId="236"/>
+      <sheetData sheetId="237"/>
+      <sheetData sheetId="238"/>
+      <sheetData sheetId="239"/>
+      <sheetData sheetId="240"/>
+      <sheetData sheetId="241"/>
+      <sheetData sheetId="242"/>
+      <sheetData sheetId="243"/>
+      <sheetData sheetId="244" refreshError="1"/>
+      <sheetData sheetId="245" refreshError="1"/>
+      <sheetData sheetId="246" refreshError="1"/>
+      <sheetData sheetId="247" refreshError="1"/>
+      <sheetData sheetId="248" refreshError="1"/>
+      <sheetData sheetId="249" refreshError="1"/>
+      <sheetData sheetId="250" refreshError="1"/>
+      <sheetData sheetId="251" refreshError="1"/>
+      <sheetData sheetId="252" refreshError="1"/>
+      <sheetData sheetId="253" refreshError="1"/>
+      <sheetData sheetId="254" refreshError="1"/>
+      <sheetData sheetId="255" refreshError="1"/>
+      <sheetData sheetId="256" refreshError="1"/>
+      <sheetData sheetId="257" refreshError="1"/>
+      <sheetData sheetId="258" refreshError="1"/>
+      <sheetData sheetId="259" refreshError="1"/>
+      <sheetData sheetId="260" refreshError="1"/>
+      <sheetData sheetId="261" refreshError="1"/>
+      <sheetData sheetId="262" refreshError="1"/>
+      <sheetData sheetId="263" refreshError="1"/>
+      <sheetData sheetId="264" refreshError="1"/>
+      <sheetData sheetId="265"/>
+      <sheetData sheetId="266" refreshError="1"/>
+      <sheetData sheetId="267" refreshError="1"/>
+      <sheetData sheetId="268"/>
+      <sheetData sheetId="269"/>
+      <sheetData sheetId="270"/>
+      <sheetData sheetId="271"/>
+      <sheetData sheetId="272"/>
+      <sheetData sheetId="273"/>
+      <sheetData sheetId="274"/>
+      <sheetData sheetId="275"/>
+      <sheetData sheetId="276"/>
+      <sheetData sheetId="277"/>
+      <sheetData sheetId="278"/>
+      <sheetData sheetId="279"/>
+      <sheetData sheetId="280"/>
+      <sheetData sheetId="281"/>
+      <sheetData sheetId="282"/>
+      <sheetData sheetId="283"/>
+      <sheetData sheetId="284"/>
+      <sheetData sheetId="285"/>
+      <sheetData sheetId="286"/>
+      <sheetData sheetId="287"/>
+      <sheetData sheetId="288"/>
+      <sheetData sheetId="289"/>
+      <sheetData sheetId="290"/>
+      <sheetData sheetId="291"/>
+      <sheetData sheetId="292"/>
+      <sheetData sheetId="293"/>
+      <sheetData sheetId="294"/>
+      <sheetData sheetId="295"/>
+      <sheetData sheetId="296" refreshError="1"/>
+      <sheetData sheetId="297" refreshError="1"/>
+      <sheetData sheetId="298" refreshError="1"/>
+      <sheetData sheetId="299" refreshError="1"/>
+      <sheetData sheetId="300" refreshError="1"/>
+      <sheetData sheetId="301" refreshError="1"/>
+      <sheetData sheetId="302" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8201,6 +9455,10 @@
       <sheetName val="インデックス仕様"/>
       <sheetName val="関連定義"/>
       <sheetName val="SQL文"/>
+      <sheetName val="入力規則"/>
+      <sheetName val="テーブル定義"/>
+      <sheetName val="list"/>
+      <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -8210,6 +9468,10 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11191,1430 +12453,1358 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="8" width="2.59765625" style="83" customWidth="1"/>
-    <col min="9" max="9" width="2.69921875" style="83" customWidth="1"/>
-    <col min="10" max="256" width="2.59765625" style="83"/>
-    <col min="257" max="264" width="2.59765625" style="83" customWidth="1"/>
-    <col min="265" max="265" width="2.69921875" style="83" customWidth="1"/>
-    <col min="266" max="512" width="2.59765625" style="83"/>
-    <col min="513" max="520" width="2.59765625" style="83" customWidth="1"/>
-    <col min="521" max="521" width="2.69921875" style="83" customWidth="1"/>
-    <col min="522" max="768" width="2.59765625" style="83"/>
-    <col min="769" max="776" width="2.59765625" style="83" customWidth="1"/>
-    <col min="777" max="777" width="2.69921875" style="83" customWidth="1"/>
-    <col min="778" max="1024" width="2.59765625" style="83"/>
-    <col min="1025" max="1032" width="2.59765625" style="83" customWidth="1"/>
-    <col min="1033" max="1033" width="2.69921875" style="83" customWidth="1"/>
-    <col min="1034" max="1280" width="2.59765625" style="83"/>
-    <col min="1281" max="1288" width="2.59765625" style="83" customWidth="1"/>
-    <col min="1289" max="1289" width="2.69921875" style="83" customWidth="1"/>
-    <col min="1290" max="1536" width="2.59765625" style="83"/>
-    <col min="1537" max="1544" width="2.59765625" style="83" customWidth="1"/>
-    <col min="1545" max="1545" width="2.69921875" style="83" customWidth="1"/>
-    <col min="1546" max="1792" width="2.59765625" style="83"/>
-    <col min="1793" max="1800" width="2.59765625" style="83" customWidth="1"/>
-    <col min="1801" max="1801" width="2.69921875" style="83" customWidth="1"/>
-    <col min="1802" max="2048" width="2.59765625" style="83"/>
-    <col min="2049" max="2056" width="2.59765625" style="83" customWidth="1"/>
-    <col min="2057" max="2057" width="2.69921875" style="83" customWidth="1"/>
-    <col min="2058" max="2304" width="2.59765625" style="83"/>
-    <col min="2305" max="2312" width="2.59765625" style="83" customWidth="1"/>
-    <col min="2313" max="2313" width="2.69921875" style="83" customWidth="1"/>
-    <col min="2314" max="2560" width="2.59765625" style="83"/>
-    <col min="2561" max="2568" width="2.59765625" style="83" customWidth="1"/>
-    <col min="2569" max="2569" width="2.69921875" style="83" customWidth="1"/>
-    <col min="2570" max="2816" width="2.59765625" style="83"/>
-    <col min="2817" max="2824" width="2.59765625" style="83" customWidth="1"/>
-    <col min="2825" max="2825" width="2.69921875" style="83" customWidth="1"/>
-    <col min="2826" max="3072" width="2.59765625" style="83"/>
-    <col min="3073" max="3080" width="2.59765625" style="83" customWidth="1"/>
-    <col min="3081" max="3081" width="2.69921875" style="83" customWidth="1"/>
-    <col min="3082" max="3328" width="2.59765625" style="83"/>
-    <col min="3329" max="3336" width="2.59765625" style="83" customWidth="1"/>
-    <col min="3337" max="3337" width="2.69921875" style="83" customWidth="1"/>
-    <col min="3338" max="3584" width="2.59765625" style="83"/>
-    <col min="3585" max="3592" width="2.59765625" style="83" customWidth="1"/>
-    <col min="3593" max="3593" width="2.69921875" style="83" customWidth="1"/>
-    <col min="3594" max="3840" width="2.59765625" style="83"/>
-    <col min="3841" max="3848" width="2.59765625" style="83" customWidth="1"/>
-    <col min="3849" max="3849" width="2.69921875" style="83" customWidth="1"/>
-    <col min="3850" max="4096" width="2.59765625" style="83"/>
-    <col min="4097" max="4104" width="2.59765625" style="83" customWidth="1"/>
-    <col min="4105" max="4105" width="2.69921875" style="83" customWidth="1"/>
-    <col min="4106" max="4352" width="2.59765625" style="83"/>
-    <col min="4353" max="4360" width="2.59765625" style="83" customWidth="1"/>
-    <col min="4361" max="4361" width="2.69921875" style="83" customWidth="1"/>
-    <col min="4362" max="4608" width="2.59765625" style="83"/>
-    <col min="4609" max="4616" width="2.59765625" style="83" customWidth="1"/>
-    <col min="4617" max="4617" width="2.69921875" style="83" customWidth="1"/>
-    <col min="4618" max="4864" width="2.59765625" style="83"/>
-    <col min="4865" max="4872" width="2.59765625" style="83" customWidth="1"/>
-    <col min="4873" max="4873" width="2.69921875" style="83" customWidth="1"/>
-    <col min="4874" max="5120" width="2.59765625" style="83"/>
-    <col min="5121" max="5128" width="2.59765625" style="83" customWidth="1"/>
-    <col min="5129" max="5129" width="2.69921875" style="83" customWidth="1"/>
-    <col min="5130" max="5376" width="2.59765625" style="83"/>
-    <col min="5377" max="5384" width="2.59765625" style="83" customWidth="1"/>
-    <col min="5385" max="5385" width="2.69921875" style="83" customWidth="1"/>
-    <col min="5386" max="5632" width="2.59765625" style="83"/>
-    <col min="5633" max="5640" width="2.59765625" style="83" customWidth="1"/>
-    <col min="5641" max="5641" width="2.69921875" style="83" customWidth="1"/>
-    <col min="5642" max="5888" width="2.59765625" style="83"/>
-    <col min="5889" max="5896" width="2.59765625" style="83" customWidth="1"/>
-    <col min="5897" max="5897" width="2.69921875" style="83" customWidth="1"/>
-    <col min="5898" max="6144" width="2.59765625" style="83"/>
-    <col min="6145" max="6152" width="2.59765625" style="83" customWidth="1"/>
-    <col min="6153" max="6153" width="2.69921875" style="83" customWidth="1"/>
-    <col min="6154" max="6400" width="2.59765625" style="83"/>
-    <col min="6401" max="6408" width="2.59765625" style="83" customWidth="1"/>
-    <col min="6409" max="6409" width="2.69921875" style="83" customWidth="1"/>
-    <col min="6410" max="6656" width="2.59765625" style="83"/>
-    <col min="6657" max="6664" width="2.59765625" style="83" customWidth="1"/>
-    <col min="6665" max="6665" width="2.69921875" style="83" customWidth="1"/>
-    <col min="6666" max="6912" width="2.59765625" style="83"/>
-    <col min="6913" max="6920" width="2.59765625" style="83" customWidth="1"/>
-    <col min="6921" max="6921" width="2.69921875" style="83" customWidth="1"/>
-    <col min="6922" max="7168" width="2.59765625" style="83"/>
-    <col min="7169" max="7176" width="2.59765625" style="83" customWidth="1"/>
-    <col min="7177" max="7177" width="2.69921875" style="83" customWidth="1"/>
-    <col min="7178" max="7424" width="2.59765625" style="83"/>
-    <col min="7425" max="7432" width="2.59765625" style="83" customWidth="1"/>
-    <col min="7433" max="7433" width="2.69921875" style="83" customWidth="1"/>
-    <col min="7434" max="7680" width="2.59765625" style="83"/>
-    <col min="7681" max="7688" width="2.59765625" style="83" customWidth="1"/>
-    <col min="7689" max="7689" width="2.69921875" style="83" customWidth="1"/>
-    <col min="7690" max="7936" width="2.59765625" style="83"/>
-    <col min="7937" max="7944" width="2.59765625" style="83" customWidth="1"/>
-    <col min="7945" max="7945" width="2.69921875" style="83" customWidth="1"/>
-    <col min="7946" max="8192" width="2.59765625" style="83"/>
-    <col min="8193" max="8200" width="2.59765625" style="83" customWidth="1"/>
-    <col min="8201" max="8201" width="2.69921875" style="83" customWidth="1"/>
-    <col min="8202" max="8448" width="2.59765625" style="83"/>
-    <col min="8449" max="8456" width="2.59765625" style="83" customWidth="1"/>
-    <col min="8457" max="8457" width="2.69921875" style="83" customWidth="1"/>
-    <col min="8458" max="8704" width="2.59765625" style="83"/>
-    <col min="8705" max="8712" width="2.59765625" style="83" customWidth="1"/>
-    <col min="8713" max="8713" width="2.69921875" style="83" customWidth="1"/>
-    <col min="8714" max="8960" width="2.59765625" style="83"/>
-    <col min="8961" max="8968" width="2.59765625" style="83" customWidth="1"/>
-    <col min="8969" max="8969" width="2.69921875" style="83" customWidth="1"/>
-    <col min="8970" max="9216" width="2.59765625" style="83"/>
-    <col min="9217" max="9224" width="2.59765625" style="83" customWidth="1"/>
-    <col min="9225" max="9225" width="2.69921875" style="83" customWidth="1"/>
-    <col min="9226" max="9472" width="2.59765625" style="83"/>
-    <col min="9473" max="9480" width="2.59765625" style="83" customWidth="1"/>
-    <col min="9481" max="9481" width="2.69921875" style="83" customWidth="1"/>
-    <col min="9482" max="9728" width="2.59765625" style="83"/>
-    <col min="9729" max="9736" width="2.59765625" style="83" customWidth="1"/>
-    <col min="9737" max="9737" width="2.69921875" style="83" customWidth="1"/>
-    <col min="9738" max="9984" width="2.59765625" style="83"/>
-    <col min="9985" max="9992" width="2.59765625" style="83" customWidth="1"/>
-    <col min="9993" max="9993" width="2.69921875" style="83" customWidth="1"/>
-    <col min="9994" max="10240" width="2.59765625" style="83"/>
-    <col min="10241" max="10248" width="2.59765625" style="83" customWidth="1"/>
-    <col min="10249" max="10249" width="2.69921875" style="83" customWidth="1"/>
-    <col min="10250" max="10496" width="2.59765625" style="83"/>
-    <col min="10497" max="10504" width="2.59765625" style="83" customWidth="1"/>
-    <col min="10505" max="10505" width="2.69921875" style="83" customWidth="1"/>
-    <col min="10506" max="10752" width="2.59765625" style="83"/>
-    <col min="10753" max="10760" width="2.59765625" style="83" customWidth="1"/>
-    <col min="10761" max="10761" width="2.69921875" style="83" customWidth="1"/>
-    <col min="10762" max="11008" width="2.59765625" style="83"/>
-    <col min="11009" max="11016" width="2.59765625" style="83" customWidth="1"/>
-    <col min="11017" max="11017" width="2.69921875" style="83" customWidth="1"/>
-    <col min="11018" max="11264" width="2.59765625" style="83"/>
-    <col min="11265" max="11272" width="2.59765625" style="83" customWidth="1"/>
-    <col min="11273" max="11273" width="2.69921875" style="83" customWidth="1"/>
-    <col min="11274" max="11520" width="2.59765625" style="83"/>
-    <col min="11521" max="11528" width="2.59765625" style="83" customWidth="1"/>
-    <col min="11529" max="11529" width="2.69921875" style="83" customWidth="1"/>
-    <col min="11530" max="11776" width="2.59765625" style="83"/>
-    <col min="11777" max="11784" width="2.59765625" style="83" customWidth="1"/>
-    <col min="11785" max="11785" width="2.69921875" style="83" customWidth="1"/>
-    <col min="11786" max="12032" width="2.59765625" style="83"/>
-    <col min="12033" max="12040" width="2.59765625" style="83" customWidth="1"/>
-    <col min="12041" max="12041" width="2.69921875" style="83" customWidth="1"/>
-    <col min="12042" max="12288" width="2.59765625" style="83"/>
-    <col min="12289" max="12296" width="2.59765625" style="83" customWidth="1"/>
-    <col min="12297" max="12297" width="2.69921875" style="83" customWidth="1"/>
-    <col min="12298" max="12544" width="2.59765625" style="83"/>
-    <col min="12545" max="12552" width="2.59765625" style="83" customWidth="1"/>
-    <col min="12553" max="12553" width="2.69921875" style="83" customWidth="1"/>
-    <col min="12554" max="12800" width="2.59765625" style="83"/>
-    <col min="12801" max="12808" width="2.59765625" style="83" customWidth="1"/>
-    <col min="12809" max="12809" width="2.69921875" style="83" customWidth="1"/>
-    <col min="12810" max="13056" width="2.59765625" style="83"/>
-    <col min="13057" max="13064" width="2.59765625" style="83" customWidth="1"/>
-    <col min="13065" max="13065" width="2.69921875" style="83" customWidth="1"/>
-    <col min="13066" max="13312" width="2.59765625" style="83"/>
-    <col min="13313" max="13320" width="2.59765625" style="83" customWidth="1"/>
-    <col min="13321" max="13321" width="2.69921875" style="83" customWidth="1"/>
-    <col min="13322" max="13568" width="2.59765625" style="83"/>
-    <col min="13569" max="13576" width="2.59765625" style="83" customWidth="1"/>
-    <col min="13577" max="13577" width="2.69921875" style="83" customWidth="1"/>
-    <col min="13578" max="13824" width="2.59765625" style="83"/>
-    <col min="13825" max="13832" width="2.59765625" style="83" customWidth="1"/>
-    <col min="13833" max="13833" width="2.69921875" style="83" customWidth="1"/>
-    <col min="13834" max="14080" width="2.59765625" style="83"/>
-    <col min="14081" max="14088" width="2.59765625" style="83" customWidth="1"/>
-    <col min="14089" max="14089" width="2.69921875" style="83" customWidth="1"/>
-    <col min="14090" max="14336" width="2.59765625" style="83"/>
-    <col min="14337" max="14344" width="2.59765625" style="83" customWidth="1"/>
-    <col min="14345" max="14345" width="2.69921875" style="83" customWidth="1"/>
-    <col min="14346" max="14592" width="2.59765625" style="83"/>
-    <col min="14593" max="14600" width="2.59765625" style="83" customWidth="1"/>
-    <col min="14601" max="14601" width="2.69921875" style="83" customWidth="1"/>
-    <col min="14602" max="14848" width="2.59765625" style="83"/>
-    <col min="14849" max="14856" width="2.59765625" style="83" customWidth="1"/>
-    <col min="14857" max="14857" width="2.69921875" style="83" customWidth="1"/>
-    <col min="14858" max="15104" width="2.59765625" style="83"/>
-    <col min="15105" max="15112" width="2.59765625" style="83" customWidth="1"/>
-    <col min="15113" max="15113" width="2.69921875" style="83" customWidth="1"/>
-    <col min="15114" max="15360" width="2.59765625" style="83"/>
-    <col min="15361" max="15368" width="2.59765625" style="83" customWidth="1"/>
-    <col min="15369" max="15369" width="2.69921875" style="83" customWidth="1"/>
-    <col min="15370" max="15616" width="2.59765625" style="83"/>
-    <col min="15617" max="15624" width="2.59765625" style="83" customWidth="1"/>
-    <col min="15625" max="15625" width="2.69921875" style="83" customWidth="1"/>
-    <col min="15626" max="15872" width="2.59765625" style="83"/>
-    <col min="15873" max="15880" width="2.59765625" style="83" customWidth="1"/>
-    <col min="15881" max="15881" width="2.69921875" style="83" customWidth="1"/>
-    <col min="15882" max="16128" width="2.59765625" style="83"/>
-    <col min="16129" max="16136" width="2.59765625" style="83" customWidth="1"/>
-    <col min="16137" max="16137" width="2.69921875" style="83" customWidth="1"/>
-    <col min="16138" max="16384" width="2.59765625" style="83"/>
+    <col min="1" max="8" width="2.59765625" style="81" customWidth="1"/>
+    <col min="9" max="9" width="2.69921875" style="81" customWidth="1"/>
+    <col min="10" max="256" width="2.59765625" style="81"/>
+    <col min="257" max="264" width="2.59765625" style="81" customWidth="1"/>
+    <col min="265" max="265" width="2.69921875" style="81" customWidth="1"/>
+    <col min="266" max="512" width="2.59765625" style="81"/>
+    <col min="513" max="520" width="2.59765625" style="81" customWidth="1"/>
+    <col min="521" max="521" width="2.69921875" style="81" customWidth="1"/>
+    <col min="522" max="768" width="2.59765625" style="81"/>
+    <col min="769" max="776" width="2.59765625" style="81" customWidth="1"/>
+    <col min="777" max="777" width="2.69921875" style="81" customWidth="1"/>
+    <col min="778" max="1024" width="2.59765625" style="81"/>
+    <col min="1025" max="1032" width="2.59765625" style="81" customWidth="1"/>
+    <col min="1033" max="1033" width="2.69921875" style="81" customWidth="1"/>
+    <col min="1034" max="1280" width="2.59765625" style="81"/>
+    <col min="1281" max="1288" width="2.59765625" style="81" customWidth="1"/>
+    <col min="1289" max="1289" width="2.69921875" style="81" customWidth="1"/>
+    <col min="1290" max="1536" width="2.59765625" style="81"/>
+    <col min="1537" max="1544" width="2.59765625" style="81" customWidth="1"/>
+    <col min="1545" max="1545" width="2.69921875" style="81" customWidth="1"/>
+    <col min="1546" max="1792" width="2.59765625" style="81"/>
+    <col min="1793" max="1800" width="2.59765625" style="81" customWidth="1"/>
+    <col min="1801" max="1801" width="2.69921875" style="81" customWidth="1"/>
+    <col min="1802" max="2048" width="2.59765625" style="81"/>
+    <col min="2049" max="2056" width="2.59765625" style="81" customWidth="1"/>
+    <col min="2057" max="2057" width="2.69921875" style="81" customWidth="1"/>
+    <col min="2058" max="2304" width="2.59765625" style="81"/>
+    <col min="2305" max="2312" width="2.59765625" style="81" customWidth="1"/>
+    <col min="2313" max="2313" width="2.69921875" style="81" customWidth="1"/>
+    <col min="2314" max="2560" width="2.59765625" style="81"/>
+    <col min="2561" max="2568" width="2.59765625" style="81" customWidth="1"/>
+    <col min="2569" max="2569" width="2.69921875" style="81" customWidth="1"/>
+    <col min="2570" max="2816" width="2.59765625" style="81"/>
+    <col min="2817" max="2824" width="2.59765625" style="81" customWidth="1"/>
+    <col min="2825" max="2825" width="2.69921875" style="81" customWidth="1"/>
+    <col min="2826" max="3072" width="2.59765625" style="81"/>
+    <col min="3073" max="3080" width="2.59765625" style="81" customWidth="1"/>
+    <col min="3081" max="3081" width="2.69921875" style="81" customWidth="1"/>
+    <col min="3082" max="3328" width="2.59765625" style="81"/>
+    <col min="3329" max="3336" width="2.59765625" style="81" customWidth="1"/>
+    <col min="3337" max="3337" width="2.69921875" style="81" customWidth="1"/>
+    <col min="3338" max="3584" width="2.59765625" style="81"/>
+    <col min="3585" max="3592" width="2.59765625" style="81" customWidth="1"/>
+    <col min="3593" max="3593" width="2.69921875" style="81" customWidth="1"/>
+    <col min="3594" max="3840" width="2.59765625" style="81"/>
+    <col min="3841" max="3848" width="2.59765625" style="81" customWidth="1"/>
+    <col min="3849" max="3849" width="2.69921875" style="81" customWidth="1"/>
+    <col min="3850" max="4096" width="2.59765625" style="81"/>
+    <col min="4097" max="4104" width="2.59765625" style="81" customWidth="1"/>
+    <col min="4105" max="4105" width="2.69921875" style="81" customWidth="1"/>
+    <col min="4106" max="4352" width="2.59765625" style="81"/>
+    <col min="4353" max="4360" width="2.59765625" style="81" customWidth="1"/>
+    <col min="4361" max="4361" width="2.69921875" style="81" customWidth="1"/>
+    <col min="4362" max="4608" width="2.59765625" style="81"/>
+    <col min="4609" max="4616" width="2.59765625" style="81" customWidth="1"/>
+    <col min="4617" max="4617" width="2.69921875" style="81" customWidth="1"/>
+    <col min="4618" max="4864" width="2.59765625" style="81"/>
+    <col min="4865" max="4872" width="2.59765625" style="81" customWidth="1"/>
+    <col min="4873" max="4873" width="2.69921875" style="81" customWidth="1"/>
+    <col min="4874" max="5120" width="2.59765625" style="81"/>
+    <col min="5121" max="5128" width="2.59765625" style="81" customWidth="1"/>
+    <col min="5129" max="5129" width="2.69921875" style="81" customWidth="1"/>
+    <col min="5130" max="5376" width="2.59765625" style="81"/>
+    <col min="5377" max="5384" width="2.59765625" style="81" customWidth="1"/>
+    <col min="5385" max="5385" width="2.69921875" style="81" customWidth="1"/>
+    <col min="5386" max="5632" width="2.59765625" style="81"/>
+    <col min="5633" max="5640" width="2.59765625" style="81" customWidth="1"/>
+    <col min="5641" max="5641" width="2.69921875" style="81" customWidth="1"/>
+    <col min="5642" max="5888" width="2.59765625" style="81"/>
+    <col min="5889" max="5896" width="2.59765625" style="81" customWidth="1"/>
+    <col min="5897" max="5897" width="2.69921875" style="81" customWidth="1"/>
+    <col min="5898" max="6144" width="2.59765625" style="81"/>
+    <col min="6145" max="6152" width="2.59765625" style="81" customWidth="1"/>
+    <col min="6153" max="6153" width="2.69921875" style="81" customWidth="1"/>
+    <col min="6154" max="6400" width="2.59765625" style="81"/>
+    <col min="6401" max="6408" width="2.59765625" style="81" customWidth="1"/>
+    <col min="6409" max="6409" width="2.69921875" style="81" customWidth="1"/>
+    <col min="6410" max="6656" width="2.59765625" style="81"/>
+    <col min="6657" max="6664" width="2.59765625" style="81" customWidth="1"/>
+    <col min="6665" max="6665" width="2.69921875" style="81" customWidth="1"/>
+    <col min="6666" max="6912" width="2.59765625" style="81"/>
+    <col min="6913" max="6920" width="2.59765625" style="81" customWidth="1"/>
+    <col min="6921" max="6921" width="2.69921875" style="81" customWidth="1"/>
+    <col min="6922" max="7168" width="2.59765625" style="81"/>
+    <col min="7169" max="7176" width="2.59765625" style="81" customWidth="1"/>
+    <col min="7177" max="7177" width="2.69921875" style="81" customWidth="1"/>
+    <col min="7178" max="7424" width="2.59765625" style="81"/>
+    <col min="7425" max="7432" width="2.59765625" style="81" customWidth="1"/>
+    <col min="7433" max="7433" width="2.69921875" style="81" customWidth="1"/>
+    <col min="7434" max="7680" width="2.59765625" style="81"/>
+    <col min="7681" max="7688" width="2.59765625" style="81" customWidth="1"/>
+    <col min="7689" max="7689" width="2.69921875" style="81" customWidth="1"/>
+    <col min="7690" max="7936" width="2.59765625" style="81"/>
+    <col min="7937" max="7944" width="2.59765625" style="81" customWidth="1"/>
+    <col min="7945" max="7945" width="2.69921875" style="81" customWidth="1"/>
+    <col min="7946" max="8192" width="2.59765625" style="81"/>
+    <col min="8193" max="8200" width="2.59765625" style="81" customWidth="1"/>
+    <col min="8201" max="8201" width="2.69921875" style="81" customWidth="1"/>
+    <col min="8202" max="8448" width="2.59765625" style="81"/>
+    <col min="8449" max="8456" width="2.59765625" style="81" customWidth="1"/>
+    <col min="8457" max="8457" width="2.69921875" style="81" customWidth="1"/>
+    <col min="8458" max="8704" width="2.59765625" style="81"/>
+    <col min="8705" max="8712" width="2.59765625" style="81" customWidth="1"/>
+    <col min="8713" max="8713" width="2.69921875" style="81" customWidth="1"/>
+    <col min="8714" max="8960" width="2.59765625" style="81"/>
+    <col min="8961" max="8968" width="2.59765625" style="81" customWidth="1"/>
+    <col min="8969" max="8969" width="2.69921875" style="81" customWidth="1"/>
+    <col min="8970" max="9216" width="2.59765625" style="81"/>
+    <col min="9217" max="9224" width="2.59765625" style="81" customWidth="1"/>
+    <col min="9225" max="9225" width="2.69921875" style="81" customWidth="1"/>
+    <col min="9226" max="9472" width="2.59765625" style="81"/>
+    <col min="9473" max="9480" width="2.59765625" style="81" customWidth="1"/>
+    <col min="9481" max="9481" width="2.69921875" style="81" customWidth="1"/>
+    <col min="9482" max="9728" width="2.59765625" style="81"/>
+    <col min="9729" max="9736" width="2.59765625" style="81" customWidth="1"/>
+    <col min="9737" max="9737" width="2.69921875" style="81" customWidth="1"/>
+    <col min="9738" max="9984" width="2.59765625" style="81"/>
+    <col min="9985" max="9992" width="2.59765625" style="81" customWidth="1"/>
+    <col min="9993" max="9993" width="2.69921875" style="81" customWidth="1"/>
+    <col min="9994" max="10240" width="2.59765625" style="81"/>
+    <col min="10241" max="10248" width="2.59765625" style="81" customWidth="1"/>
+    <col min="10249" max="10249" width="2.69921875" style="81" customWidth="1"/>
+    <col min="10250" max="10496" width="2.59765625" style="81"/>
+    <col min="10497" max="10504" width="2.59765625" style="81" customWidth="1"/>
+    <col min="10505" max="10505" width="2.69921875" style="81" customWidth="1"/>
+    <col min="10506" max="10752" width="2.59765625" style="81"/>
+    <col min="10753" max="10760" width="2.59765625" style="81" customWidth="1"/>
+    <col min="10761" max="10761" width="2.69921875" style="81" customWidth="1"/>
+    <col min="10762" max="11008" width="2.59765625" style="81"/>
+    <col min="11009" max="11016" width="2.59765625" style="81" customWidth="1"/>
+    <col min="11017" max="11017" width="2.69921875" style="81" customWidth="1"/>
+    <col min="11018" max="11264" width="2.59765625" style="81"/>
+    <col min="11265" max="11272" width="2.59765625" style="81" customWidth="1"/>
+    <col min="11273" max="11273" width="2.69921875" style="81" customWidth="1"/>
+    <col min="11274" max="11520" width="2.59765625" style="81"/>
+    <col min="11521" max="11528" width="2.59765625" style="81" customWidth="1"/>
+    <col min="11529" max="11529" width="2.69921875" style="81" customWidth="1"/>
+    <col min="11530" max="11776" width="2.59765625" style="81"/>
+    <col min="11777" max="11784" width="2.59765625" style="81" customWidth="1"/>
+    <col min="11785" max="11785" width="2.69921875" style="81" customWidth="1"/>
+    <col min="11786" max="12032" width="2.59765625" style="81"/>
+    <col min="12033" max="12040" width="2.59765625" style="81" customWidth="1"/>
+    <col min="12041" max="12041" width="2.69921875" style="81" customWidth="1"/>
+    <col min="12042" max="12288" width="2.59765625" style="81"/>
+    <col min="12289" max="12296" width="2.59765625" style="81" customWidth="1"/>
+    <col min="12297" max="12297" width="2.69921875" style="81" customWidth="1"/>
+    <col min="12298" max="12544" width="2.59765625" style="81"/>
+    <col min="12545" max="12552" width="2.59765625" style="81" customWidth="1"/>
+    <col min="12553" max="12553" width="2.69921875" style="81" customWidth="1"/>
+    <col min="12554" max="12800" width="2.59765625" style="81"/>
+    <col min="12801" max="12808" width="2.59765625" style="81" customWidth="1"/>
+    <col min="12809" max="12809" width="2.69921875" style="81" customWidth="1"/>
+    <col min="12810" max="13056" width="2.59765625" style="81"/>
+    <col min="13057" max="13064" width="2.59765625" style="81" customWidth="1"/>
+    <col min="13065" max="13065" width="2.69921875" style="81" customWidth="1"/>
+    <col min="13066" max="13312" width="2.59765625" style="81"/>
+    <col min="13313" max="13320" width="2.59765625" style="81" customWidth="1"/>
+    <col min="13321" max="13321" width="2.69921875" style="81" customWidth="1"/>
+    <col min="13322" max="13568" width="2.59765625" style="81"/>
+    <col min="13569" max="13576" width="2.59765625" style="81" customWidth="1"/>
+    <col min="13577" max="13577" width="2.69921875" style="81" customWidth="1"/>
+    <col min="13578" max="13824" width="2.59765625" style="81"/>
+    <col min="13825" max="13832" width="2.59765625" style="81" customWidth="1"/>
+    <col min="13833" max="13833" width="2.69921875" style="81" customWidth="1"/>
+    <col min="13834" max="14080" width="2.59765625" style="81"/>
+    <col min="14081" max="14088" width="2.59765625" style="81" customWidth="1"/>
+    <col min="14089" max="14089" width="2.69921875" style="81" customWidth="1"/>
+    <col min="14090" max="14336" width="2.59765625" style="81"/>
+    <col min="14337" max="14344" width="2.59765625" style="81" customWidth="1"/>
+    <col min="14345" max="14345" width="2.69921875" style="81" customWidth="1"/>
+    <col min="14346" max="14592" width="2.59765625" style="81"/>
+    <col min="14593" max="14600" width="2.59765625" style="81" customWidth="1"/>
+    <col min="14601" max="14601" width="2.69921875" style="81" customWidth="1"/>
+    <col min="14602" max="14848" width="2.59765625" style="81"/>
+    <col min="14849" max="14856" width="2.59765625" style="81" customWidth="1"/>
+    <col min="14857" max="14857" width="2.69921875" style="81" customWidth="1"/>
+    <col min="14858" max="15104" width="2.59765625" style="81"/>
+    <col min="15105" max="15112" width="2.59765625" style="81" customWidth="1"/>
+    <col min="15113" max="15113" width="2.69921875" style="81" customWidth="1"/>
+    <col min="15114" max="15360" width="2.59765625" style="81"/>
+    <col min="15361" max="15368" width="2.59765625" style="81" customWidth="1"/>
+    <col min="15369" max="15369" width="2.69921875" style="81" customWidth="1"/>
+    <col min="15370" max="15616" width="2.59765625" style="81"/>
+    <col min="15617" max="15624" width="2.59765625" style="81" customWidth="1"/>
+    <col min="15625" max="15625" width="2.69921875" style="81" customWidth="1"/>
+    <col min="15626" max="15872" width="2.59765625" style="81"/>
+    <col min="15873" max="15880" width="2.59765625" style="81" customWidth="1"/>
+    <col min="15881" max="15881" width="2.69921875" style="81" customWidth="1"/>
+    <col min="15882" max="16128" width="2.59765625" style="81"/>
+    <col min="16129" max="16136" width="2.59765625" style="81" customWidth="1"/>
+    <col min="16137" max="16137" width="2.69921875" style="81" customWidth="1"/>
+    <col min="16138" max="16384" width="2.59765625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="11.4" thickBot="1"/>
     <row r="2" spans="1:37" ht="11.4" thickBot="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="103" t="s">
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="121"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="121"/>
+      <c r="AI2" s="121"/>
+      <c r="AJ2" s="121"/>
+      <c r="AK2" s="122"/>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="123">
+        <v>44835</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106" t="s">
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="106"/>
-      <c r="AH2" s="106"/>
-      <c r="AI2" s="106"/>
-      <c r="AJ2" s="106"/>
-      <c r="AK2" s="107"/>
-    </row>
-    <row r="3" spans="1:37" ht="11.4" thickBot="1">
-      <c r="A3" s="108">
-        <v>44835</v>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="124"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="125"/>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="130">
+        <v>45089</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111" t="s">
-        <v>136</v>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133" t="s">
+        <v>134</v>
       </c>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="114" t="s">
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="136" t="s">
         <v>137</v>
       </c>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="109"/>
-      <c r="AG3" s="109"/>
-      <c r="AH3" s="109"/>
-      <c r="AI3" s="109"/>
-      <c r="AJ3" s="109"/>
-      <c r="AK3" s="110"/>
-    </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="94">
-        <v>45089</v>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="137"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="137"/>
+      <c r="AH4" s="137"/>
+      <c r="AI4" s="137"/>
+      <c r="AJ4" s="137"/>
+      <c r="AK4" s="138"/>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="130">
+        <v>45327</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="111" t="s">
-        <v>136</v>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="139" t="s">
+        <v>138</v>
       </c>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="100" t="s">
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="142" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="102"/>
-    </row>
-    <row r="5" spans="1:37">
-      <c r="A5" s="94"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="98"/>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="99"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="143"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="143"/>
+      <c r="AE5" s="143"/>
+      <c r="AF5" s="143"/>
+      <c r="AG5" s="143"/>
+      <c r="AH5" s="143"/>
+      <c r="AI5" s="143"/>
+      <c r="AJ5" s="143"/>
+      <c r="AK5" s="144"/>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" s="94"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="98"/>
-      <c r="AH6" s="98"/>
-      <c r="AI6" s="98"/>
-      <c r="AJ6" s="98"/>
-      <c r="AK6" s="99"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="143"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="143"/>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="143"/>
+      <c r="AE6" s="143"/>
+      <c r="AF6" s="143"/>
+      <c r="AG6" s="143"/>
+      <c r="AH6" s="143"/>
+      <c r="AI6" s="143"/>
+      <c r="AJ6" s="143"/>
+      <c r="AK6" s="144"/>
     </row>
     <row r="7" spans="1:37">
-      <c r="A7" s="94"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="99"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="143"/>
+      <c r="AE7" s="143"/>
+      <c r="AF7" s="143"/>
+      <c r="AG7" s="143"/>
+      <c r="AH7" s="143"/>
+      <c r="AI7" s="143"/>
+      <c r="AJ7" s="143"/>
+      <c r="AK7" s="144"/>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="94"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="98"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="98"/>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="98"/>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="99"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="143"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="143"/>
+      <c r="R8" s="143"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="143"/>
+      <c r="W8" s="143"/>
+      <c r="X8" s="143"/>
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="143"/>
+      <c r="AA8" s="143"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="143"/>
+      <c r="AD8" s="143"/>
+      <c r="AE8" s="143"/>
+      <c r="AF8" s="143"/>
+      <c r="AG8" s="143"/>
+      <c r="AH8" s="143"/>
+      <c r="AI8" s="143"/>
+      <c r="AJ8" s="143"/>
+      <c r="AK8" s="144"/>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="94"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="98"/>
-      <c r="AG9" s="98"/>
-      <c r="AH9" s="98"/>
-      <c r="AI9" s="98"/>
-      <c r="AJ9" s="98"/>
-      <c r="AK9" s="99"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="143"/>
+      <c r="P9" s="143"/>
+      <c r="Q9" s="143"/>
+      <c r="R9" s="143"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="143"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="143"/>
+      <c r="X9" s="143"/>
+      <c r="Y9" s="143"/>
+      <c r="Z9" s="143"/>
+      <c r="AA9" s="143"/>
+      <c r="AB9" s="143"/>
+      <c r="AC9" s="143"/>
+      <c r="AD9" s="143"/>
+      <c r="AE9" s="143"/>
+      <c r="AF9" s="143"/>
+      <c r="AG9" s="143"/>
+      <c r="AH9" s="143"/>
+      <c r="AI9" s="143"/>
+      <c r="AJ9" s="143"/>
+      <c r="AK9" s="144"/>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="94"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="98"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="98"/>
-      <c r="AD10" s="98"/>
-      <c r="AE10" s="98"/>
-      <c r="AF10" s="98"/>
-      <c r="AG10" s="98"/>
-      <c r="AH10" s="98"/>
-      <c r="AI10" s="98"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="99"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="143"/>
+      <c r="Q10" s="143"/>
+      <c r="R10" s="143"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="143"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="143"/>
+      <c r="W10" s="143"/>
+      <c r="X10" s="143"/>
+      <c r="Y10" s="143"/>
+      <c r="Z10" s="143"/>
+      <c r="AA10" s="143"/>
+      <c r="AB10" s="143"/>
+      <c r="AC10" s="143"/>
+      <c r="AD10" s="143"/>
+      <c r="AE10" s="143"/>
+      <c r="AF10" s="143"/>
+      <c r="AG10" s="143"/>
+      <c r="AH10" s="143"/>
+      <c r="AI10" s="143"/>
+      <c r="AJ10" s="143"/>
+      <c r="AK10" s="144"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="89"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="93"/>
+      <c r="A11" s="139"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="145"/>
+      <c r="U11" s="145"/>
+      <c r="V11" s="145"/>
+      <c r="W11" s="145"/>
+      <c r="X11" s="145"/>
+      <c r="Y11" s="145"/>
+      <c r="Z11" s="145"/>
+      <c r="AA11" s="145"/>
+      <c r="AB11" s="145"/>
+      <c r="AC11" s="145"/>
+      <c r="AD11" s="145"/>
+      <c r="AE11" s="145"/>
+      <c r="AF11" s="145"/>
+      <c r="AG11" s="145"/>
+      <c r="AH11" s="145"/>
+      <c r="AI11" s="145"/>
+      <c r="AJ11" s="145"/>
+      <c r="AK11" s="146"/>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="89"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="92"/>
-      <c r="Z12" s="92"/>
-      <c r="AA12" s="92"/>
-      <c r="AB12" s="92"/>
-      <c r="AC12" s="92"/>
-      <c r="AD12" s="92"/>
-      <c r="AE12" s="92"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="92"/>
-      <c r="AJ12" s="92"/>
-      <c r="AK12" s="93"/>
+      <c r="A12" s="139"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="145"/>
+      <c r="T12" s="145"/>
+      <c r="U12" s="145"/>
+      <c r="V12" s="145"/>
+      <c r="W12" s="145"/>
+      <c r="X12" s="145"/>
+      <c r="Y12" s="145"/>
+      <c r="Z12" s="145"/>
+      <c r="AA12" s="145"/>
+      <c r="AB12" s="145"/>
+      <c r="AC12" s="145"/>
+      <c r="AD12" s="145"/>
+      <c r="AE12" s="145"/>
+      <c r="AF12" s="145"/>
+      <c r="AG12" s="145"/>
+      <c r="AH12" s="145"/>
+      <c r="AI12" s="145"/>
+      <c r="AJ12" s="145"/>
+      <c r="AK12" s="146"/>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="89"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="92"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="92"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="93"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="145"/>
+      <c r="S13" s="145"/>
+      <c r="T13" s="145"/>
+      <c r="U13" s="145"/>
+      <c r="V13" s="145"/>
+      <c r="W13" s="145"/>
+      <c r="X13" s="145"/>
+      <c r="Y13" s="145"/>
+      <c r="Z13" s="145"/>
+      <c r="AA13" s="145"/>
+      <c r="AB13" s="145"/>
+      <c r="AC13" s="145"/>
+      <c r="AD13" s="145"/>
+      <c r="AE13" s="145"/>
+      <c r="AF13" s="145"/>
+      <c r="AG13" s="145"/>
+      <c r="AH13" s="145"/>
+      <c r="AI13" s="145"/>
+      <c r="AJ13" s="145"/>
+      <c r="AK13" s="146"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="89"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="92"/>
-      <c r="V14" s="92"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="92"/>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="92"/>
-      <c r="AB14" s="92"/>
-      <c r="AC14" s="92"/>
-      <c r="AD14" s="92"/>
-      <c r="AE14" s="92"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="92"/>
-      <c r="AI14" s="92"/>
-      <c r="AJ14" s="92"/>
-      <c r="AK14" s="93"/>
+      <c r="A14" s="139"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="145"/>
+      <c r="S14" s="145"/>
+      <c r="T14" s="145"/>
+      <c r="U14" s="145"/>
+      <c r="V14" s="145"/>
+      <c r="W14" s="145"/>
+      <c r="X14" s="145"/>
+      <c r="Y14" s="145"/>
+      <c r="Z14" s="145"/>
+      <c r="AA14" s="145"/>
+      <c r="AB14" s="145"/>
+      <c r="AC14" s="145"/>
+      <c r="AD14" s="145"/>
+      <c r="AE14" s="145"/>
+      <c r="AF14" s="145"/>
+      <c r="AG14" s="145"/>
+      <c r="AH14" s="145"/>
+      <c r="AI14" s="145"/>
+      <c r="AJ14" s="145"/>
+      <c r="AK14" s="146"/>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="89"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="92"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="92"/>
-      <c r="AE15" s="92"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="92"/>
-      <c r="AI15" s="92"/>
-      <c r="AJ15" s="92"/>
-      <c r="AK15" s="93"/>
+      <c r="A15" s="139"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="145"/>
+      <c r="S15" s="145"/>
+      <c r="T15" s="145"/>
+      <c r="U15" s="145"/>
+      <c r="V15" s="145"/>
+      <c r="W15" s="145"/>
+      <c r="X15" s="145"/>
+      <c r="Y15" s="145"/>
+      <c r="Z15" s="145"/>
+      <c r="AA15" s="145"/>
+      <c r="AB15" s="145"/>
+      <c r="AC15" s="145"/>
+      <c r="AD15" s="145"/>
+      <c r="AE15" s="145"/>
+      <c r="AF15" s="145"/>
+      <c r="AG15" s="145"/>
+      <c r="AH15" s="145"/>
+      <c r="AI15" s="145"/>
+      <c r="AJ15" s="145"/>
+      <c r="AK15" s="146"/>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="92"/>
-      <c r="AB16" s="92"/>
-      <c r="AC16" s="92"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="92"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="92"/>
-      <c r="AJ16" s="92"/>
-      <c r="AK16" s="93"/>
+      <c r="A16" s="139"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="145"/>
+      <c r="M16" s="145"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="145"/>
+      <c r="P16" s="145"/>
+      <c r="Q16" s="145"/>
+      <c r="R16" s="145"/>
+      <c r="S16" s="145"/>
+      <c r="T16" s="145"/>
+      <c r="U16" s="145"/>
+      <c r="V16" s="145"/>
+      <c r="W16" s="145"/>
+      <c r="X16" s="145"/>
+      <c r="Y16" s="145"/>
+      <c r="Z16" s="145"/>
+      <c r="AA16" s="145"/>
+      <c r="AB16" s="145"/>
+      <c r="AC16" s="145"/>
+      <c r="AD16" s="145"/>
+      <c r="AE16" s="145"/>
+      <c r="AF16" s="145"/>
+      <c r="AG16" s="145"/>
+      <c r="AH16" s="145"/>
+      <c r="AI16" s="145"/>
+      <c r="AJ16" s="145"/>
+      <c r="AK16" s="146"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="89"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="92"/>
-      <c r="AD17" s="92"/>
-      <c r="AE17" s="92"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="92"/>
-      <c r="AH17" s="92"/>
-      <c r="AI17" s="92"/>
-      <c r="AJ17" s="92"/>
-      <c r="AK17" s="93"/>
+      <c r="A17" s="139"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="145"/>
+      <c r="T17" s="145"/>
+      <c r="U17" s="145"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="145"/>
+      <c r="X17" s="145"/>
+      <c r="Y17" s="145"/>
+      <c r="Z17" s="145"/>
+      <c r="AA17" s="145"/>
+      <c r="AB17" s="145"/>
+      <c r="AC17" s="145"/>
+      <c r="AD17" s="145"/>
+      <c r="AE17" s="145"/>
+      <c r="AF17" s="145"/>
+      <c r="AG17" s="145"/>
+      <c r="AH17" s="145"/>
+      <c r="AI17" s="145"/>
+      <c r="AJ17" s="145"/>
+      <c r="AK17" s="146"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="89"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="92"/>
-      <c r="AA18" s="92"/>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="92"/>
-      <c r="AD18" s="92"/>
-      <c r="AE18" s="92"/>
-      <c r="AF18" s="92"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="92"/>
-      <c r="AI18" s="92"/>
-      <c r="AJ18" s="92"/>
-      <c r="AK18" s="93"/>
+      <c r="A18" s="139"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="145"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="145"/>
+      <c r="S18" s="145"/>
+      <c r="T18" s="145"/>
+      <c r="U18" s="145"/>
+      <c r="V18" s="145"/>
+      <c r="W18" s="145"/>
+      <c r="X18" s="145"/>
+      <c r="Y18" s="145"/>
+      <c r="Z18" s="145"/>
+      <c r="AA18" s="145"/>
+      <c r="AB18" s="145"/>
+      <c r="AC18" s="145"/>
+      <c r="AD18" s="145"/>
+      <c r="AE18" s="145"/>
+      <c r="AF18" s="145"/>
+      <c r="AG18" s="145"/>
+      <c r="AH18" s="145"/>
+      <c r="AI18" s="145"/>
+      <c r="AJ18" s="145"/>
+      <c r="AK18" s="146"/>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="89"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="92"/>
-      <c r="AD19" s="92"/>
-      <c r="AE19" s="92"/>
-      <c r="AF19" s="92"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="92"/>
-      <c r="AI19" s="92"/>
-      <c r="AJ19" s="92"/>
-      <c r="AK19" s="93"/>
+      <c r="A19" s="139"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="145"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="145"/>
+      <c r="Q19" s="145"/>
+      <c r="R19" s="145"/>
+      <c r="S19" s="145"/>
+      <c r="T19" s="145"/>
+      <c r="U19" s="145"/>
+      <c r="V19" s="145"/>
+      <c r="W19" s="145"/>
+      <c r="X19" s="145"/>
+      <c r="Y19" s="145"/>
+      <c r="Z19" s="145"/>
+      <c r="AA19" s="145"/>
+      <c r="AB19" s="145"/>
+      <c r="AC19" s="145"/>
+      <c r="AD19" s="145"/>
+      <c r="AE19" s="145"/>
+      <c r="AF19" s="145"/>
+      <c r="AG19" s="145"/>
+      <c r="AH19" s="145"/>
+      <c r="AI19" s="145"/>
+      <c r="AJ19" s="145"/>
+      <c r="AK19" s="146"/>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="89"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="92"/>
-      <c r="Z20" s="92"/>
-      <c r="AA20" s="92"/>
-      <c r="AB20" s="92"/>
-      <c r="AC20" s="92"/>
-      <c r="AD20" s="92"/>
-      <c r="AE20" s="92"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="92"/>
-      <c r="AI20" s="92"/>
-      <c r="AJ20" s="92"/>
-      <c r="AK20" s="93"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="145"/>
+      <c r="P20" s="145"/>
+      <c r="Q20" s="145"/>
+      <c r="R20" s="145"/>
+      <c r="S20" s="145"/>
+      <c r="T20" s="145"/>
+      <c r="U20" s="145"/>
+      <c r="V20" s="145"/>
+      <c r="W20" s="145"/>
+      <c r="X20" s="145"/>
+      <c r="Y20" s="145"/>
+      <c r="Z20" s="145"/>
+      <c r="AA20" s="145"/>
+      <c r="AB20" s="145"/>
+      <c r="AC20" s="145"/>
+      <c r="AD20" s="145"/>
+      <c r="AE20" s="145"/>
+      <c r="AF20" s="145"/>
+      <c r="AG20" s="145"/>
+      <c r="AH20" s="145"/>
+      <c r="AI20" s="145"/>
+      <c r="AJ20" s="145"/>
+      <c r="AK20" s="146"/>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="89"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="92"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="92"/>
-      <c r="Z21" s="92"/>
-      <c r="AA21" s="92"/>
-      <c r="AB21" s="92"/>
-      <c r="AC21" s="92"/>
-      <c r="AD21" s="92"/>
-      <c r="AE21" s="92"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="92"/>
-      <c r="AH21" s="92"/>
-      <c r="AI21" s="92"/>
-      <c r="AJ21" s="92"/>
-      <c r="AK21" s="93"/>
+      <c r="A21" s="139"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="145"/>
+      <c r="Q21" s="145"/>
+      <c r="R21" s="145"/>
+      <c r="S21" s="145"/>
+      <c r="T21" s="145"/>
+      <c r="U21" s="145"/>
+      <c r="V21" s="145"/>
+      <c r="W21" s="145"/>
+      <c r="X21" s="145"/>
+      <c r="Y21" s="145"/>
+      <c r="Z21" s="145"/>
+      <c r="AA21" s="145"/>
+      <c r="AB21" s="145"/>
+      <c r="AC21" s="145"/>
+      <c r="AD21" s="145"/>
+      <c r="AE21" s="145"/>
+      <c r="AF21" s="145"/>
+      <c r="AG21" s="145"/>
+      <c r="AH21" s="145"/>
+      <c r="AI21" s="145"/>
+      <c r="AJ21" s="145"/>
+      <c r="AK21" s="146"/>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="89"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="92"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="92"/>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="92"/>
-      <c r="AB22" s="92"/>
-      <c r="AC22" s="92"/>
-      <c r="AD22" s="92"/>
-      <c r="AE22" s="92"/>
-      <c r="AF22" s="92"/>
-      <c r="AG22" s="92"/>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="92"/>
-      <c r="AJ22" s="92"/>
-      <c r="AK22" s="93"/>
+      <c r="A22" s="139"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="145"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="145"/>
+      <c r="S22" s="145"/>
+      <c r="T22" s="145"/>
+      <c r="U22" s="145"/>
+      <c r="V22" s="145"/>
+      <c r="W22" s="145"/>
+      <c r="X22" s="145"/>
+      <c r="Y22" s="145"/>
+      <c r="Z22" s="145"/>
+      <c r="AA22" s="145"/>
+      <c r="AB22" s="145"/>
+      <c r="AC22" s="145"/>
+      <c r="AD22" s="145"/>
+      <c r="AE22" s="145"/>
+      <c r="AF22" s="145"/>
+      <c r="AG22" s="145"/>
+      <c r="AH22" s="145"/>
+      <c r="AI22" s="145"/>
+      <c r="AJ22" s="145"/>
+      <c r="AK22" s="146"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="89"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="92"/>
-      <c r="AA23" s="92"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="92"/>
-      <c r="AD23" s="92"/>
-      <c r="AE23" s="92"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="92"/>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="92"/>
-      <c r="AJ23" s="92"/>
-      <c r="AK23" s="93"/>
+      <c r="A23" s="139"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="145"/>
+      <c r="O23" s="145"/>
+      <c r="P23" s="145"/>
+      <c r="Q23" s="145"/>
+      <c r="R23" s="145"/>
+      <c r="S23" s="145"/>
+      <c r="T23" s="145"/>
+      <c r="U23" s="145"/>
+      <c r="V23" s="145"/>
+      <c r="W23" s="145"/>
+      <c r="X23" s="145"/>
+      <c r="Y23" s="145"/>
+      <c r="Z23" s="145"/>
+      <c r="AA23" s="145"/>
+      <c r="AB23" s="145"/>
+      <c r="AC23" s="145"/>
+      <c r="AD23" s="145"/>
+      <c r="AE23" s="145"/>
+      <c r="AF23" s="145"/>
+      <c r="AG23" s="145"/>
+      <c r="AH23" s="145"/>
+      <c r="AI23" s="145"/>
+      <c r="AJ23" s="145"/>
+      <c r="AK23" s="146"/>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="89"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="92"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="92"/>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="92"/>
-      <c r="AD24" s="92"/>
-      <c r="AE24" s="92"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="92"/>
-      <c r="AJ24" s="92"/>
-      <c r="AK24" s="93"/>
+      <c r="A24" s="139"/>
+      <c r="B24" s="140"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="145"/>
+      <c r="O24" s="145"/>
+      <c r="P24" s="145"/>
+      <c r="Q24" s="145"/>
+      <c r="R24" s="145"/>
+      <c r="S24" s="145"/>
+      <c r="T24" s="145"/>
+      <c r="U24" s="145"/>
+      <c r="V24" s="145"/>
+      <c r="W24" s="145"/>
+      <c r="X24" s="145"/>
+      <c r="Y24" s="145"/>
+      <c r="Z24" s="145"/>
+      <c r="AA24" s="145"/>
+      <c r="AB24" s="145"/>
+      <c r="AC24" s="145"/>
+      <c r="AD24" s="145"/>
+      <c r="AE24" s="145"/>
+      <c r="AF24" s="145"/>
+      <c r="AG24" s="145"/>
+      <c r="AH24" s="145"/>
+      <c r="AI24" s="145"/>
+      <c r="AJ24" s="145"/>
+      <c r="AK24" s="146"/>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="89"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="92"/>
-      <c r="AB25" s="92"/>
-      <c r="AC25" s="92"/>
-      <c r="AD25" s="92"/>
-      <c r="AE25" s="92"/>
-      <c r="AF25" s="92"/>
-      <c r="AG25" s="92"/>
-      <c r="AH25" s="92"/>
-      <c r="AI25" s="92"/>
-      <c r="AJ25" s="92"/>
-      <c r="AK25" s="93"/>
+      <c r="A25" s="139"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="145"/>
+      <c r="P25" s="145"/>
+      <c r="Q25" s="145"/>
+      <c r="R25" s="145"/>
+      <c r="S25" s="145"/>
+      <c r="T25" s="145"/>
+      <c r="U25" s="145"/>
+      <c r="V25" s="145"/>
+      <c r="W25" s="145"/>
+      <c r="X25" s="145"/>
+      <c r="Y25" s="145"/>
+      <c r="Z25" s="145"/>
+      <c r="AA25" s="145"/>
+      <c r="AB25" s="145"/>
+      <c r="AC25" s="145"/>
+      <c r="AD25" s="145"/>
+      <c r="AE25" s="145"/>
+      <c r="AF25" s="145"/>
+      <c r="AG25" s="145"/>
+      <c r="AH25" s="145"/>
+      <c r="AI25" s="145"/>
+      <c r="AJ25" s="145"/>
+      <c r="AK25" s="146"/>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="89"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="92"/>
-      <c r="V26" s="92"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="92"/>
-      <c r="Y26" s="92"/>
-      <c r="Z26" s="92"/>
-      <c r="AA26" s="92"/>
-      <c r="AB26" s="92"/>
-      <c r="AC26" s="92"/>
-      <c r="AD26" s="92"/>
-      <c r="AE26" s="92"/>
-      <c r="AF26" s="92"/>
-      <c r="AG26" s="92"/>
-      <c r="AH26" s="92"/>
-      <c r="AI26" s="92"/>
-      <c r="AJ26" s="92"/>
-      <c r="AK26" s="93"/>
+      <c r="A26" s="139"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="145"/>
+      <c r="N26" s="145"/>
+      <c r="O26" s="145"/>
+      <c r="P26" s="145"/>
+      <c r="Q26" s="145"/>
+      <c r="R26" s="145"/>
+      <c r="S26" s="145"/>
+      <c r="T26" s="145"/>
+      <c r="U26" s="145"/>
+      <c r="V26" s="145"/>
+      <c r="W26" s="145"/>
+      <c r="X26" s="145"/>
+      <c r="Y26" s="145"/>
+      <c r="Z26" s="145"/>
+      <c r="AA26" s="145"/>
+      <c r="AB26" s="145"/>
+      <c r="AC26" s="145"/>
+      <c r="AD26" s="145"/>
+      <c r="AE26" s="145"/>
+      <c r="AF26" s="145"/>
+      <c r="AG26" s="145"/>
+      <c r="AH26" s="145"/>
+      <c r="AI26" s="145"/>
+      <c r="AJ26" s="145"/>
+      <c r="AK26" s="146"/>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="89"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="92"/>
-      <c r="Z27" s="92"/>
-      <c r="AA27" s="92"/>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="92"/>
-      <c r="AD27" s="92"/>
-      <c r="AE27" s="92"/>
-      <c r="AF27" s="92"/>
-      <c r="AG27" s="92"/>
-      <c r="AH27" s="92"/>
-      <c r="AI27" s="92"/>
-      <c r="AJ27" s="92"/>
-      <c r="AK27" s="93"/>
+      <c r="A27" s="139"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="145"/>
+      <c r="M27" s="145"/>
+      <c r="N27" s="145"/>
+      <c r="O27" s="145"/>
+      <c r="P27" s="145"/>
+      <c r="Q27" s="145"/>
+      <c r="R27" s="145"/>
+      <c r="S27" s="145"/>
+      <c r="T27" s="145"/>
+      <c r="U27" s="145"/>
+      <c r="V27" s="145"/>
+      <c r="W27" s="145"/>
+      <c r="X27" s="145"/>
+      <c r="Y27" s="145"/>
+      <c r="Z27" s="145"/>
+      <c r="AA27" s="145"/>
+      <c r="AB27" s="145"/>
+      <c r="AC27" s="145"/>
+      <c r="AD27" s="145"/>
+      <c r="AE27" s="145"/>
+      <c r="AF27" s="145"/>
+      <c r="AG27" s="145"/>
+      <c r="AH27" s="145"/>
+      <c r="AI27" s="145"/>
+      <c r="AJ27" s="145"/>
+      <c r="AK27" s="146"/>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="89"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="92"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="92"/>
-      <c r="AK28" s="93"/>
+      <c r="A28" s="139"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="145"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="145"/>
+      <c r="T28" s="145"/>
+      <c r="U28" s="145"/>
+      <c r="V28" s="145"/>
+      <c r="W28" s="145"/>
+      <c r="X28" s="145"/>
+      <c r="Y28" s="145"/>
+      <c r="Z28" s="145"/>
+      <c r="AA28" s="145"/>
+      <c r="AB28" s="145"/>
+      <c r="AC28" s="145"/>
+      <c r="AD28" s="145"/>
+      <c r="AE28" s="145"/>
+      <c r="AF28" s="145"/>
+      <c r="AG28" s="145"/>
+      <c r="AH28" s="145"/>
+      <c r="AI28" s="145"/>
+      <c r="AJ28" s="145"/>
+      <c r="AK28" s="146"/>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="89"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="92"/>
-      <c r="U29" s="92"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="92"/>
-      <c r="AB29" s="92"/>
-      <c r="AC29" s="92"/>
-      <c r="AD29" s="92"/>
-      <c r="AE29" s="92"/>
-      <c r="AF29" s="92"/>
-      <c r="AG29" s="92"/>
-      <c r="AH29" s="92"/>
-      <c r="AI29" s="92"/>
-      <c r="AJ29" s="92"/>
-      <c r="AK29" s="93"/>
+      <c r="A29" s="139"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="145"/>
+      <c r="Q29" s="145"/>
+      <c r="R29" s="145"/>
+      <c r="S29" s="145"/>
+      <c r="T29" s="145"/>
+      <c r="U29" s="145"/>
+      <c r="V29" s="145"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="145"/>
+      <c r="Y29" s="145"/>
+      <c r="Z29" s="145"/>
+      <c r="AA29" s="145"/>
+      <c r="AB29" s="145"/>
+      <c r="AC29" s="145"/>
+      <c r="AD29" s="145"/>
+      <c r="AE29" s="145"/>
+      <c r="AF29" s="145"/>
+      <c r="AG29" s="145"/>
+      <c r="AH29" s="145"/>
+      <c r="AI29" s="145"/>
+      <c r="AJ29" s="145"/>
+      <c r="AK29" s="146"/>
     </row>
     <row r="30" spans="1:37" ht="11.4" thickBot="1">
-      <c r="A30" s="84"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="87"/>
-      <c r="Z30" s="87"/>
-      <c r="AA30" s="87"/>
-      <c r="AB30" s="87"/>
-      <c r="AC30" s="87"/>
-      <c r="AD30" s="87"/>
-      <c r="AE30" s="87"/>
-      <c r="AF30" s="87"/>
-      <c r="AG30" s="87"/>
-      <c r="AH30" s="87"/>
-      <c r="AI30" s="87"/>
-      <c r="AJ30" s="87"/>
-      <c r="AK30" s="88"/>
+      <c r="A30" s="147"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
+      <c r="N30" s="150"/>
+      <c r="O30" s="150"/>
+      <c r="P30" s="150"/>
+      <c r="Q30" s="150"/>
+      <c r="R30" s="150"/>
+      <c r="S30" s="150"/>
+      <c r="T30" s="150"/>
+      <c r="U30" s="150"/>
+      <c r="V30" s="150"/>
+      <c r="W30" s="150"/>
+      <c r="X30" s="150"/>
+      <c r="Y30" s="150"/>
+      <c r="Z30" s="150"/>
+      <c r="AA30" s="150"/>
+      <c r="AB30" s="150"/>
+      <c r="AC30" s="150"/>
+      <c r="AD30" s="150"/>
+      <c r="AE30" s="150"/>
+      <c r="AF30" s="150"/>
+      <c r="AG30" s="150"/>
+      <c r="AH30" s="150"/>
+      <c r="AI30" s="150"/>
+      <c r="AJ30" s="150"/>
+      <c r="AK30" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:AK2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:AK3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:AK4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:AK5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:AK6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:AK7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:AK9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:AK10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:AK11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:AK12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:AK13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:AK14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:AK15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:AK16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:AK17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:AK18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:AK19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:AK20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AK21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AK22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AK23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AK24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AK25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AK26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AK27"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="J30:AK30"/>
@@ -12624,6 +13814,84 @@
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="J29:AK29"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AK26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AK27"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AK24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AK25"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AK22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AK23"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AK20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AK21"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:AK18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:AK19"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:AK16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:AK17"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:AK14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:AK15"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:AK12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:AK13"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:AK10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:AK11"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:AK8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:AK9"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:AK6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:AK7"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:AK4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:AK5"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:AK2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:AK3"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -12634,550 +13902,685 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X33"/>
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+  </sheetPr>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.3984375" style="110" customWidth="1"/>
+    <col min="2" max="2" width="21" style="111" customWidth="1"/>
+    <col min="3" max="5" width="30.796875" style="111" customWidth="1"/>
+    <col min="6" max="16384" width="8" style="110"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="91" customFormat="1" ht="11.4"/>
+    <row r="2" spans="1:11" s="92" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+    </row>
+    <row r="3" spans="1:11" s="92" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B3" s="95" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="92" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+    </row>
+    <row r="5" spans="1:11" s="92" customFormat="1" ht="21" customHeight="1">
+      <c r="B5" s="96" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="92" customFormat="1" thickBot="1"/>
+    <row r="7" spans="1:11" s="99" customFormat="1" ht="14.4">
+      <c r="A7" s="92"/>
+      <c r="B7" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="99" customFormat="1" ht="46.8" customHeight="1">
+      <c r="A8" s="92"/>
+      <c r="B8" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="99" customFormat="1" ht="14.4">
+      <c r="A9" s="92"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="113"/>
+    </row>
+    <row r="10" spans="1:11" s="99" customFormat="1" ht="14.4">
+      <c r="A10" s="92"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="114"/>
+    </row>
+    <row r="11" spans="1:11" s="99" customFormat="1" thickBot="1">
+      <c r="A11" s="92"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="115"/>
+    </row>
+    <row r="12" spans="1:11" s="109" customFormat="1">
+      <c r="A12" s="106"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+    </row>
+    <row r="13" spans="1:11" s="92" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+    </row>
+    <row r="14" spans="1:11" s="92" customFormat="1" ht="21" customHeight="1">
+      <c r="B14" s="96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="111" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF66CC"/>
+  </sheetPr>
+  <dimension ref="A1:X35"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.19921875" style="63" customWidth="1"/>
-    <col min="2" max="2" width="7.69921875" style="63" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" style="63" customWidth="1"/>
-    <col min="4" max="4" width="8.69921875" style="63" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="63" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" style="63" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5" style="63" customWidth="1"/>
-    <col min="8" max="8" width="27.19921875" style="63" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5" style="63" bestFit="1" customWidth="1"/>
-    <col min="11" max="24" width="10.59765625" style="63" customWidth="1"/>
-    <col min="25" max="16384" width="7.5" style="63"/>
+    <col min="1" max="1" width="27.19921875" style="62" customWidth="1"/>
+    <col min="2" max="2" width="7.69921875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="62" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" style="62" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5" style="62" customWidth="1"/>
+    <col min="8" max="8" width="27.19921875" style="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="11" max="24" width="10.59765625" style="62" customWidth="1"/>
+    <col min="25" max="16384" width="7.5" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
     </row>
     <row r="2" spans="1:24" ht="15">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="160" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:24" s="58" customFormat="1" ht="15">
+      <c r="A4" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+    </row>
+    <row r="5" spans="1:24" s="59" customFormat="1" ht="15">
+      <c r="A5" s="161" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+    </row>
+    <row r="6" spans="1:24" s="59" customFormat="1" ht="15">
+      <c r="A6" s="161" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="64"/>
-    </row>
-    <row r="3" spans="1:24" ht="15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:24" ht="15">
-      <c r="A4" s="123" t="s">
+      <c r="B6" s="162"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+    </row>
+    <row r="7" spans="1:24" s="59" customFormat="1" ht="15">
+      <c r="A7" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="162"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+    </row>
+    <row r="8" spans="1:24" s="59" customFormat="1" ht="15">
+      <c r="A8" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+    </row>
+    <row r="9" spans="1:24" s="59" customFormat="1" ht="15">
+      <c r="A9" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+    </row>
+    <row r="10" spans="1:24" s="59" customFormat="1" ht="15">
+      <c r="A10" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+    </row>
+    <row r="11" spans="1:24" ht="15">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:24" ht="15">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:24" ht="15">
+      <c r="A13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="75"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+    </row>
+    <row r="14" spans="1:24" ht="15">
+      <c r="A14" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="71"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="76"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+    </row>
+    <row r="15" spans="1:24" ht="14.4" customHeight="1">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+    </row>
+    <row r="16" spans="1:24" ht="15">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+    </row>
+    <row r="17" spans="1:24" ht="15">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+    </row>
+    <row r="18" spans="1:24" ht="15">
+      <c r="A18" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:24" s="58" customFormat="1" ht="15">
+      <c r="A20" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+    </row>
+    <row r="21" spans="1:24" s="59" customFormat="1" ht="15">
+      <c r="A21" s="161" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+    </row>
+    <row r="22" spans="1:24" s="59" customFormat="1" ht="15">
+      <c r="A22" s="161" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="162"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+    </row>
+    <row r="23" spans="1:24" s="59" customFormat="1" ht="15">
+      <c r="A23" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+    </row>
+    <row r="24" spans="1:24" ht="15">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:24" ht="15">
+      <c r="A25" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15">
+      <c r="A26" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="50"/>
+      <c r="I26" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+    </row>
+    <row r="27" spans="1:24" ht="15">
+      <c r="A27" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="74"/>
+      <c r="D27" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-    </row>
-    <row r="5" spans="1:24" ht="15">
-      <c r="A5" s="6"/>
-    </row>
-    <row r="6" spans="1:24" s="58" customFormat="1" ht="15">
-      <c r="A6" s="61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="59" customFormat="1" ht="15">
-      <c r="A7" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="118" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-    </row>
-    <row r="8" spans="1:24" s="59" customFormat="1" ht="15">
-      <c r="A8" s="115" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-    </row>
-    <row r="9" spans="1:24" s="59" customFormat="1" ht="15">
-      <c r="A9" s="115" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-    </row>
-    <row r="10" spans="1:24" s="59" customFormat="1" ht="15">
-      <c r="A10" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-    </row>
-    <row r="11" spans="1:24" s="59" customFormat="1" ht="15">
-      <c r="A11" s="117" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-    </row>
-    <row r="12" spans="1:24" s="59" customFormat="1" ht="15">
-      <c r="A12" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="39"/>
-    </row>
-    <row r="13" spans="1:24" ht="15">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:24" ht="15">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:24" ht="15">
-      <c r="A15" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15" s="77"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-    </row>
-    <row r="16" spans="1:24" ht="15">
-      <c r="A16" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" s="78"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-    </row>
-    <row r="17" spans="1:24" ht="14.4" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-    </row>
-    <row r="18" spans="1:24" ht="15">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-    </row>
-    <row r="19" spans="1:24" ht="15">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-    </row>
-    <row r="20" spans="1:24" ht="15">
-      <c r="A20" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="15">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:24" s="58" customFormat="1" ht="15">
-      <c r="A22" s="61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" s="59" customFormat="1" ht="15">
-      <c r="A23" s="115" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="115"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-    </row>
-    <row r="24" spans="1:24" s="59" customFormat="1" ht="15">
-      <c r="A24" s="115" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-    </row>
-    <row r="25" spans="1:24" s="59" customFormat="1" ht="15">
-      <c r="A25" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="39"/>
-    </row>
-    <row r="26" spans="1:24" ht="15">
-      <c r="A26" s="6"/>
-    </row>
-    <row r="27" spans="1:24" ht="15">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:24" ht="15">
-      <c r="A28" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="65"/>
-    </row>
-    <row r="29" spans="1:24" ht="15">
-      <c r="A29" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="69" t="s">
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-    </row>
-    <row r="30" spans="1:24" ht="15">
-      <c r="A30" s="80" t="s">
-        <v>138</v>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+    </row>
+    <row r="28" spans="1:24" ht="15">
+      <c r="A28" s="78" t="s">
+        <v>136</v>
       </c>
-      <c r="B30" s="81" t="s">
-        <v>138</v>
+      <c r="B28" s="79" t="s">
+        <v>136</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="10" t="s">
-        <v>110</v>
+      <c r="C28" s="74"/>
+      <c r="D28" s="10" t="s">
+        <v>109</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="69" t="s">
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="67"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="67"/>
+    </row>
+    <row r="29" spans="1:24" ht="15">
+      <c r="A29" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="84"/>
+      <c r="D29" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+    </row>
+    <row r="30" spans="1:24" ht="15">
+      <c r="A30" s="69"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="67"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="67"/>
     </row>
     <row r="31" spans="1:24" ht="15">
-      <c r="A31" s="71"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="76"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="69"/>
-      <c r="X31" s="69"/>
-    </row>
-    <row r="32" spans="1:24" ht="15">
-      <c r="A32" s="71"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="69"/>
-      <c r="X32" s="69"/>
-    </row>
-    <row r="33" spans="1:24" ht="15">
-      <c r="A33" s="71"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="69"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="67"/>
+      <c r="V31" s="67"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="67"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="90" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="90"/>
+    </row>
+    <row r="35" spans="1:1" ht="15">
+      <c r="A35" s="117" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:G9"/>
-  </mergeCells>
   <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y38"/>
   <sheetViews>
@@ -13219,24 +14622,24 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
     </row>
     <row r="3" spans="1:13" ht="15">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
     </row>
     <row r="4" spans="1:13" ht="15">
       <c r="A4" s="4"/>
@@ -13244,11 +14647,11 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="15">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="127"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="158"/>
       <c r="D5" s="14" t="s">
         <v>4</v>
       </c>
@@ -13262,17 +14665,17 @@
       <c r="A7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="15">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115" t="s">
+      <c r="B8" s="152"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
       <c r="H8" s="16" t="s">
         <v>9</v>
       </c>
@@ -13291,17 +14694,17 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" ht="15.9" customHeight="1">
-      <c r="A9" s="124" t="s">
+      <c r="A9" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124" t="s">
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
       <c r="H9" s="15" t="s">
         <v>10</v>
       </c>
@@ -13320,13 +14723,13 @@
       <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:13" ht="15.9" customHeight="1">
-      <c r="A10" s="124"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
+      <c r="A10" s="155"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
       <c r="H10" s="15"/>
       <c r="I10" s="18"/>
       <c r="J10" s="13"/>
@@ -13335,13 +14738,13 @@
       <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:13" ht="15.9" customHeight="1">
-      <c r="A11" s="124"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
+      <c r="A11" s="155"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
       <c r="H11" s="15"/>
       <c r="I11" s="18"/>
       <c r="J11" s="13"/>
@@ -13350,13 +14753,13 @@
       <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13" ht="15.9" customHeight="1">
-      <c r="A12" s="124"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
+      <c r="A12" s="155"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
       <c r="H12" s="15"/>
       <c r="I12" s="18"/>
       <c r="J12" s="13"/>
@@ -13365,13 +14768,13 @@
       <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:13" ht="15.9" customHeight="1">
-      <c r="A13" s="124"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
+      <c r="A13" s="155"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
       <c r="H13" s="15"/>
       <c r="I13" s="18"/>
       <c r="J13" s="13"/>
@@ -13385,11 +14788,11 @@
       <c r="C14" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="15">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="126"/>
-      <c r="C17" s="127"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="158"/>
       <c r="D17" s="14" t="s">
         <v>14</v>
       </c>
@@ -13405,66 +14808,66 @@
       <c r="A19" s="7"/>
     </row>
     <row r="20" spans="1:13" ht="15">
-      <c r="A20" s="115" t="s">
+      <c r="A20" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115" t="s">
+      <c r="B20" s="152"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
     </row>
     <row r="21" spans="1:13" ht="15.9" customHeight="1">
-      <c r="A21" s="124" t="s">
+      <c r="A21" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124" t="s">
+      <c r="B21" s="155"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
     </row>
     <row r="22" spans="1:13" ht="15.9" customHeight="1">
-      <c r="A22" s="124"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
+      <c r="A22" s="155"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
     </row>
     <row r="23" spans="1:13" ht="15.9" customHeight="1">
-      <c r="A23" s="124"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
+      <c r="A23" s="155"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
     </row>
     <row r="24" spans="1:13" ht="15.9" customHeight="1">
-      <c r="A24" s="124"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
+      <c r="A24" s="155"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
     </row>
     <row r="25" spans="1:13" ht="15.9" customHeight="1">
-      <c r="A25" s="124"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
+      <c r="A25" s="155"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
     </row>
     <row r="26" spans="1:13" ht="15">
       <c r="A26" s="6"/>
@@ -13472,11 +14875,11 @@
       <c r="C26" s="5"/>
     </row>
     <row r="29" spans="1:13" ht="15">
-      <c r="A29" s="125" t="s">
+      <c r="A29" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="126"/>
-      <c r="C29" s="127"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="158"/>
       <c r="D29" s="14" t="s">
         <v>23</v>
       </c>
@@ -13490,17 +14893,17 @@
       <c r="A31" s="7"/>
     </row>
     <row r="32" spans="1:13" ht="15">
-      <c r="A32" s="115" t="s">
+      <c r="A32" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115" t="s">
+      <c r="B32" s="152"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
       <c r="H32" s="20" t="s">
         <v>9</v>
       </c>
@@ -13519,17 +14922,17 @@
       <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:13" ht="15.9" customHeight="1">
-      <c r="A33" s="124" t="s">
+      <c r="A33" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="124"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124" t="s">
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="124"/>
-      <c r="G33" s="124"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
       <c r="H33" s="19" t="s">
         <v>10</v>
       </c>
@@ -13548,13 +14951,13 @@
       <c r="M33" s="13"/>
     </row>
     <row r="34" spans="1:13" ht="15.9" customHeight="1">
-      <c r="A34" s="124"/>
-      <c r="B34" s="124"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
+      <c r="A34" s="155"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="13"/>
@@ -13563,13 +14966,13 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" ht="15.9" customHeight="1">
-      <c r="A35" s="124"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="124"/>
+      <c r="A35" s="155"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="13"/>
@@ -13578,13 +14981,13 @@
       <c r="M35" s="13"/>
     </row>
     <row r="36" spans="1:13" ht="15.9" customHeight="1">
-      <c r="A36" s="124"/>
-      <c r="B36" s="124"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="124"/>
+      <c r="A36" s="155"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="155"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="13"/>
@@ -13593,13 +14996,13 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" ht="15.9" customHeight="1">
-      <c r="A37" s="124"/>
-      <c r="B37" s="124"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="124"/>
+      <c r="A37" s="155"/>
+      <c r="B37" s="155"/>
+      <c r="C37" s="155"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="155"/>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="13"/>
@@ -13614,6 +15017,39 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="A34:D34"/>
@@ -13622,39 +15058,6 @@
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="E36:G36"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:G24"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <hyperlinks>
@@ -13665,7 +15068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -22859,7 +24262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
